--- a/docs/Oficial/estudantes_ficticios.xlsx
+++ b/docs/Oficial/estudantes_ficticios.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sharo\Documents\GitHub\sua-parte\docs\Oficial\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\frank.MONITORE-MAFRA\Documents\GitHub\sua-parte\docs\Oficial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F961A53B-A83E-4CE5-BD2E-1784A6E94ABB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1220AFA4-B605-466A-A69A-C75B72C97342}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2013,13 +2013,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -2327,49 +2326,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI102"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A82" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="AI1" sqref="A1:AI101"/>
+      <selection pane="bottomLeft" activeCell="AB10" sqref="A1:AI101"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="36.453125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.6328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.6328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.36328125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.08984375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.7265625" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="18.26953125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.1796875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.453125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="10.453125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.54296875" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.453125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.90625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="23.7265625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="25.81640625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.1796875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.08984375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.26953125" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="9.7265625" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="13.81640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="8.54296875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="20" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="20" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="15" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="30" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="14" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="20.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2476,7 +2474,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>113</v>
       </c>
@@ -2559,7 +2557,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>89</v>
       </c>
@@ -2642,7 +2640,7 @@
         <v>607</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>115</v>
       </c>
@@ -2722,7 +2720,7 @@
         <v>615</v>
       </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>71</v>
       </c>
@@ -2805,7 +2803,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>43</v>
       </c>
@@ -2888,7 +2886,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>44</v>
       </c>
@@ -2971,7 +2969,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>40</v>
       </c>
@@ -3054,7 +3052,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>78</v>
       </c>
@@ -3134,7 +3132,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>108</v>
       </c>
@@ -3217,7 +3215,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>122</v>
       </c>
@@ -3300,7 +3298,7 @@
         <v>593</v>
       </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>105</v>
       </c>
@@ -3383,7 +3381,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>110</v>
       </c>
@@ -3463,7 +3461,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>93</v>
       </c>
@@ -3546,7 +3544,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -3626,7 +3624,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>90</v>
       </c>
@@ -3709,7 +3707,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>64</v>
       </c>
@@ -3792,7 +3790,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>35</v>
       </c>
@@ -3875,7 +3873,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>132</v>
       </c>
@@ -3958,7 +3956,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>133</v>
       </c>
@@ -4041,7 +4039,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>81</v>
       </c>
@@ -4124,7 +4122,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>96</v>
       </c>
@@ -4207,7 +4205,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>47</v>
       </c>
@@ -4290,7 +4288,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>62</v>
       </c>
@@ -4373,7 +4371,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>65</v>
       </c>
@@ -4456,7 +4454,7 @@
         <v>597</v>
       </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>74</v>
       </c>
@@ -4539,7 +4537,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>85</v>
       </c>
@@ -4622,7 +4620,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>124</v>
       </c>
@@ -4705,7 +4703,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>112</v>
       </c>
@@ -4788,7 +4786,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>127</v>
       </c>
@@ -4868,7 +4866,7 @@
         <v>618</v>
       </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>61</v>
       </c>
@@ -4948,7 +4946,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>45</v>
       </c>
@@ -5031,7 +5029,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>97</v>
       </c>
@@ -5114,7 +5112,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>53</v>
       </c>
@@ -5197,7 +5195,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>49</v>
       </c>
@@ -5280,7 +5278,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>126</v>
       </c>
@@ -5363,7 +5361,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>46</v>
       </c>
@@ -5446,7 +5444,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>98</v>
       </c>
@@ -5529,7 +5527,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>92</v>
       </c>
@@ -5612,7 +5610,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>63</v>
       </c>
@@ -5692,7 +5690,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>41</v>
       </c>
@@ -5775,7 +5773,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>50</v>
       </c>
@@ -5858,7 +5856,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>123</v>
       </c>
@@ -5941,7 +5939,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>68</v>
       </c>
@@ -6024,7 +6022,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>100</v>
       </c>
@@ -6107,7 +6105,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>94</v>
       </c>
@@ -6190,7 +6188,7 @@
         <v>609</v>
       </c>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>76</v>
       </c>
@@ -6273,7 +6271,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>120</v>
       </c>
@@ -6352,11 +6350,11 @@
       <c r="AH48" t="b">
         <v>1</v>
       </c>
-      <c r="AI48" s="4">
+      <c r="AI48" s="3">
         <v>27977</v>
       </c>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>80</v>
       </c>
@@ -6439,7 +6437,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>72</v>
       </c>
@@ -6522,7 +6520,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>128</v>
       </c>
@@ -6602,7 +6600,7 @@
         <v>608</v>
       </c>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>39</v>
       </c>
@@ -6685,7 +6683,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>116</v>
       </c>
@@ -6768,7 +6766,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>36</v>
       </c>
@@ -6851,7 +6849,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>106</v>
       </c>
@@ -6934,7 +6932,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>109</v>
       </c>
@@ -7017,7 +7015,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>114</v>
       </c>
@@ -7097,7 +7095,7 @@
         <v>611</v>
       </c>
     </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>101</v>
       </c>
@@ -7180,7 +7178,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>111</v>
       </c>
@@ -7263,7 +7261,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>118</v>
       </c>
@@ -7343,7 +7341,7 @@
         <v>616</v>
       </c>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>69</v>
       </c>
@@ -7426,7 +7424,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>84</v>
       </c>
@@ -7509,7 +7507,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>99</v>
       </c>
@@ -7592,7 +7590,7 @@
         <v>610</v>
       </c>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>58</v>
       </c>
@@ -7675,7 +7673,7 @@
         <v>592</v>
       </c>
     </row>
-    <row r="65" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>73</v>
       </c>
@@ -7758,7 +7756,7 @@
         <v>601</v>
       </c>
     </row>
-    <row r="66" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>79</v>
       </c>
@@ -7841,7 +7839,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="67" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>95</v>
       </c>
@@ -7924,7 +7922,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="68" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>70</v>
       </c>
@@ -8007,7 +8005,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="69" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>67</v>
       </c>
@@ -8090,7 +8088,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="70" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>83</v>
       </c>
@@ -8173,7 +8171,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="71" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>82</v>
       </c>
@@ -8256,7 +8254,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="72" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>119</v>
       </c>
@@ -8339,7 +8337,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="73" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>77</v>
       </c>
@@ -8422,7 +8420,7 @@
         <v>604</v>
       </c>
     </row>
-    <row r="74" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>56</v>
       </c>
@@ -8505,7 +8503,7 @@
         <v>590</v>
       </c>
     </row>
-    <row r="75" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>57</v>
       </c>
@@ -8588,7 +8586,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="76" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>54</v>
       </c>
@@ -8671,7 +8669,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="77" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>103</v>
       </c>
@@ -8754,7 +8752,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="78" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>38</v>
       </c>
@@ -8837,7 +8835,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="79" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>87</v>
       </c>
@@ -8920,7 +8918,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="80" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>91</v>
       </c>
@@ -9003,7 +9001,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="81" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>52</v>
       </c>
@@ -9086,7 +9084,7 @@
         <v>587</v>
       </c>
     </row>
-    <row r="82" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>55</v>
       </c>
@@ -9166,7 +9164,7 @@
         <v>589</v>
       </c>
     </row>
-    <row r="83" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>104</v>
       </c>
@@ -9249,7 +9247,7 @@
         <v>612</v>
       </c>
     </row>
-    <row r="84" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>86</v>
       </c>
@@ -9332,7 +9330,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="85" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>75</v>
       </c>
@@ -9415,7 +9413,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="86" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>134</v>
       </c>
@@ -9495,7 +9493,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="87" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>51</v>
       </c>
@@ -9578,7 +9576,7 @@
         <v>586</v>
       </c>
     </row>
-    <row r="88" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>66</v>
       </c>
@@ -9661,7 +9659,7 @@
         <v>598</v>
       </c>
     </row>
-    <row r="89" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>88</v>
       </c>
@@ -9744,7 +9742,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="90" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>131</v>
       </c>
@@ -9824,7 +9822,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="91" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>125</v>
       </c>
@@ -9907,7 +9905,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="92" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>121</v>
       </c>
@@ -9987,7 +9985,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="93" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>48</v>
       </c>
@@ -10067,7 +10065,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="94" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>117</v>
       </c>
@@ -10150,7 +10148,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="95" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>60</v>
       </c>
@@ -10233,7 +10231,7 @@
         <v>594</v>
       </c>
     </row>
-    <row r="96" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>130</v>
       </c>
@@ -10316,7 +10314,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="97" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>129</v>
       </c>
@@ -10396,7 +10394,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="98" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>102</v>
       </c>
@@ -10476,7 +10474,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="99" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>59</v>
       </c>
@@ -10559,8 +10557,8 @@
         <v>593</v>
       </c>
     </row>
-    <row r="100" spans="1:35" x14ac:dyDescent="0.35">
-      <c r="A100" s="3" t="s">
+    <row r="100" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
         <v>107</v>
       </c>
       <c r="B100" t="s">
@@ -10642,7 +10640,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="101" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>42</v>
       </c>
@@ -10725,7 +10723,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="102" spans="1:35" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:35" x14ac:dyDescent="0.25">
       <c r="L102" s="2"/>
     </row>
   </sheetData>

--- a/docs/Oficial/estudantes_ficticios.xlsx
+++ b/docs/Oficial/estudantes_ficticios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sharo\Documents\GitHub\sua-parte\docs\Oficial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A5B39C2-C407-4B08-9148-EB18FF782384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B111DFA8-3DC3-4CD0-AB8D-90999A3D27F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2367,45 +2367,45 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="V7" sqref="V7"/>
+      <selection pane="bottomLeft" activeCell="L2" sqref="L2:L101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="39.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="32.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="17.7265625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.7265625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="16.54296875" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="20" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.1796875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="18.54296875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="11" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="12.1796875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="15.26953125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="15" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.453125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="25.1796875" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="27.453125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="13.7265625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.81640625" bestFit="1" customWidth="1"/>
-    <col min="28" max="30" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="14" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="33" max="33" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="34" max="34" width="12.453125" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="36.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.36328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="15.08984375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="27.81640625" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="18.26953125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.1796875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.453125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="36" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="36.453125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="23.7265625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="25.81640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="13.1796875" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="12.26953125" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="11.81640625" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="13" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.81640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="34" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="35" max="35" width="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.35">
@@ -2547,7 +2547,7 @@
         <v>559</v>
       </c>
       <c r="L2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M2" t="s">
         <v>641</v>
@@ -2609,40 +2609,40 @@
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
       <c r="B3" t="s">
-        <v>189</v>
+        <v>215</v>
       </c>
       <c r="C3" t="s">
-        <v>278</v>
+        <v>249</v>
       </c>
       <c r="D3" t="s">
         <v>620</v>
       </c>
       <c r="E3">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
         <v>301</v>
       </c>
       <c r="G3" t="s">
-        <v>349</v>
+        <v>317</v>
       </c>
       <c r="H3" t="s">
-        <v>429</v>
-      </c>
-      <c r="I3" t="s">
-        <v>523</v>
+        <v>455</v>
+      </c>
+      <c r="I3" s="3">
+        <v>43229</v>
       </c>
       <c r="J3" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="L3" t="b">
         <v>1</v>
       </c>
       <c r="M3" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="N3" t="s">
         <v>564</v>
@@ -2651,19 +2651,22 @@
         <v>564</v>
       </c>
       <c r="P3" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
       <c r="Q3" t="s">
-        <v>647</v>
-      </c>
-      <c r="T3" t="s">
+        <v>650</v>
+      </c>
+      <c r="R3" t="s">
         <v>113</v>
       </c>
-      <c r="U3" t="b">
-        <v>0</v>
+      <c r="S3" t="s">
+        <v>89</v>
+      </c>
+      <c r="U3" t="s">
+        <v>645</v>
       </c>
       <c r="V3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y3" t="s">
         <v>644</v>
@@ -2684,54 +2687,54 @@
         <v>644</v>
       </c>
       <c r="AE3" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AF3" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AG3" t="s">
         <v>644</v>
       </c>
       <c r="AH3" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AI3" t="s">
-        <v>604</v>
+        <v>612</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>115</v>
+        <v>44</v>
       </c>
       <c r="B4" t="s">
-        <v>215</v>
+        <v>144</v>
       </c>
       <c r="C4" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D4" t="s">
         <v>620</v>
       </c>
       <c r="E4">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
         <v>301</v>
       </c>
       <c r="G4" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="H4" t="s">
-        <v>455</v>
-      </c>
-      <c r="I4" s="3">
-        <v>43229</v>
+        <v>384</v>
+      </c>
+      <c r="I4" t="s">
+        <v>483</v>
       </c>
       <c r="J4" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="L4" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" t="s">
         <v>648</v>
@@ -2757,8 +2760,8 @@
       <c r="U4" t="s">
         <v>645</v>
       </c>
-      <c r="V4" t="b">
-        <v>1</v>
+      <c r="V4" s="2" t="b">
+        <v>0</v>
       </c>
       <c r="Y4" t="s">
         <v>644</v>
@@ -2767,7 +2770,7 @@
         <v>644</v>
       </c>
       <c r="AA4" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AB4" t="s">
         <v>644</v>
@@ -2779,7 +2782,7 @@
         <v>644</v>
       </c>
       <c r="AE4" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AF4" t="s">
         <v>644</v>
@@ -2788,48 +2791,48 @@
         <v>644</v>
       </c>
       <c r="AH4" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AI4" t="s">
-        <v>612</v>
+        <v>577</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="B5" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
       <c r="C5" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="D5" t="s">
         <v>620</v>
       </c>
       <c r="E5">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="F5" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G5" t="s">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="H5" t="s">
-        <v>411</v>
-      </c>
-      <c r="I5" t="s">
-        <v>506</v>
+        <v>418</v>
+      </c>
+      <c r="I5" s="3">
+        <v>40556</v>
       </c>
       <c r="J5" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="L5" t="b">
         <v>1</v>
       </c>
       <c r="M5" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="N5" t="s">
         <v>564</v>
@@ -2838,10 +2841,10 @@
         <v>564</v>
       </c>
       <c r="P5" t="s">
-        <v>642</v>
+        <v>653</v>
       </c>
       <c r="Q5" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="R5" t="s">
         <v>113</v>
@@ -2856,7 +2859,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="Z5" t="s">
         <v>644</v>
@@ -2865,10 +2868,10 @@
         <v>644</v>
       </c>
       <c r="AB5" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AC5" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AD5" t="s">
         <v>644</v>
@@ -2877,54 +2880,54 @@
         <v>644</v>
       </c>
       <c r="AF5" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AG5" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AH5" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AI5" t="s">
-        <v>589</v>
+        <v>602</v>
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>43</v>
+        <v>108</v>
       </c>
       <c r="B6" t="s">
-        <v>143</v>
+        <v>208</v>
       </c>
       <c r="C6" t="s">
-        <v>240</v>
+        <v>287</v>
       </c>
       <c r="D6" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="E6">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="F6" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G6" t="s">
-        <v>307</v>
+        <v>361</v>
       </c>
       <c r="H6" t="s">
-        <v>383</v>
+        <v>448</v>
       </c>
       <c r="I6" t="s">
-        <v>482</v>
+        <v>541</v>
       </c>
       <c r="J6" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="L6" t="b">
         <v>1</v>
       </c>
       <c r="M6" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="N6" t="s">
         <v>564</v>
@@ -2936,16 +2939,13 @@
         <v>642</v>
       </c>
       <c r="Q6" t="s">
-        <v>651</v>
-      </c>
-      <c r="R6" t="s">
-        <v>113</v>
-      </c>
-      <c r="S6" t="s">
-        <v>89</v>
-      </c>
-      <c r="U6" t="s">
-        <v>645</v>
+        <v>643</v>
+      </c>
+      <c r="T6" t="s">
+        <v>122</v>
+      </c>
+      <c r="U6" t="b">
+        <v>0</v>
       </c>
       <c r="V6" t="b">
         <v>0</v>
@@ -2960,7 +2960,7 @@
         <v>644</v>
       </c>
       <c r="AB6" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AC6" t="s">
         <v>644</v>
@@ -2981,42 +2981,42 @@
         <v>644</v>
       </c>
       <c r="AI6" t="s">
-        <v>576</v>
+        <v>593</v>
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>44</v>
+        <v>93</v>
       </c>
       <c r="B7" t="s">
-        <v>144</v>
+        <v>193</v>
       </c>
       <c r="C7" t="s">
-        <v>243</v>
+        <v>279</v>
       </c>
       <c r="D7" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="E7">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="F7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G7" t="s">
-        <v>310</v>
+        <v>351</v>
       </c>
       <c r="H7" t="s">
-        <v>384</v>
+        <v>433</v>
       </c>
       <c r="I7" t="s">
-        <v>483</v>
+        <v>527</v>
       </c>
       <c r="J7" t="s">
         <v>562</v>
       </c>
       <c r="L7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M7" t="s">
         <v>648</v>
@@ -3031,18 +3031,18 @@
         <v>649</v>
       </c>
       <c r="Q7" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="R7" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="S7" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="U7" t="s">
         <v>645</v>
       </c>
-      <c r="V7" s="2" t="b">
+      <c r="V7" t="b">
         <v>0</v>
       </c>
       <c r="Y7" t="s">
@@ -3058,7 +3058,7 @@
         <v>644</v>
       </c>
       <c r="AC7" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AD7" t="s">
         <v>644</v>
@@ -3076,45 +3076,45 @@
         <v>644</v>
       </c>
       <c r="AI7" t="s">
-        <v>577</v>
+        <v>605</v>
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C8" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="D8" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="E8">
-        <v>55</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G8" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="H8" t="s">
-        <v>380</v>
-      </c>
-      <c r="I8" t="s">
-        <v>479</v>
+        <v>377</v>
+      </c>
+      <c r="I8" s="3">
+        <v>43660</v>
       </c>
       <c r="J8" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="L8" t="b">
         <v>1</v>
       </c>
       <c r="M8" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
       <c r="N8" t="s">
         <v>564</v>
@@ -3126,19 +3126,19 @@
         <v>649</v>
       </c>
       <c r="Q8" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="R8" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="S8" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="U8" t="s">
         <v>645</v>
       </c>
       <c r="V8" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y8" t="s">
         <v>644</v>
@@ -3147,16 +3147,16 @@
         <v>644</v>
       </c>
       <c r="AA8" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AB8" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AC8" t="s">
         <v>644</v>
       </c>
       <c r="AD8" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AE8" t="s">
         <v>644</v>
@@ -3171,45 +3171,45 @@
         <v>644</v>
       </c>
       <c r="AI8" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="B9" t="s">
-        <v>178</v>
+        <v>190</v>
       </c>
       <c r="C9" t="s">
-        <v>271</v>
+        <v>235</v>
       </c>
       <c r="D9" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="E9">
-        <v>73</v>
+        <v>34</v>
       </c>
       <c r="F9" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G9" t="s">
-        <v>341</v>
+        <v>302</v>
       </c>
       <c r="H9" t="s">
-        <v>418</v>
-      </c>
-      <c r="I9" s="3">
-        <v>40556</v>
+        <v>430</v>
+      </c>
+      <c r="I9" t="s">
+        <v>524</v>
       </c>
       <c r="J9" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="L9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M9" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
       <c r="N9" t="s">
         <v>564</v>
@@ -3218,16 +3218,16 @@
         <v>564</v>
       </c>
       <c r="P9" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="Q9" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="R9" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="S9" t="s">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="U9" t="s">
         <v>645</v>
@@ -3245,66 +3245,66 @@
         <v>644</v>
       </c>
       <c r="AB9" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AC9" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AD9" t="s">
         <v>644</v>
       </c>
       <c r="AE9" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AF9" t="s">
         <v>645</v>
       </c>
       <c r="AG9" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AH9" t="s">
         <v>644</v>
       </c>
       <c r="AI9" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>108</v>
+        <v>35</v>
       </c>
       <c r="B10" t="s">
-        <v>208</v>
+        <v>135</v>
       </c>
       <c r="C10" t="s">
-        <v>287</v>
+        <v>235</v>
       </c>
       <c r="D10" t="s">
         <v>616</v>
       </c>
       <c r="E10">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="F10" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G10" t="s">
-        <v>361</v>
+        <v>302</v>
       </c>
       <c r="H10" t="s">
-        <v>448</v>
+        <v>375</v>
       </c>
       <c r="I10" t="s">
-        <v>541</v>
+        <v>475</v>
       </c>
       <c r="J10" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="L10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M10" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="N10" t="s">
         <v>564</v>
@@ -3313,22 +3313,25 @@
         <v>564</v>
       </c>
       <c r="P10" t="s">
-        <v>642</v>
+        <v>653</v>
       </c>
       <c r="Q10" t="s">
-        <v>643</v>
-      </c>
-      <c r="T10" t="s">
+        <v>651</v>
+      </c>
+      <c r="R10" t="s">
+        <v>108</v>
+      </c>
+      <c r="S10" t="s">
         <v>122</v>
       </c>
-      <c r="U10" t="b">
-        <v>0</v>
+      <c r="U10" t="s">
+        <v>645</v>
       </c>
       <c r="V10" t="b">
         <v>0</v>
       </c>
       <c r="Y10" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="Z10" t="s">
         <v>644</v>
@@ -3340,7 +3343,7 @@
         <v>644</v>
       </c>
       <c r="AC10" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AD10" t="s">
         <v>644</v>
@@ -3349,7 +3352,7 @@
         <v>644</v>
       </c>
       <c r="AF10" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AG10" t="s">
         <v>644</v>
@@ -3358,45 +3361,45 @@
         <v>644</v>
       </c>
       <c r="AI10" t="s">
-        <v>593</v>
+        <v>569</v>
       </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>122</v>
+        <v>81</v>
       </c>
       <c r="B11" t="s">
-        <v>222</v>
+        <v>181</v>
       </c>
       <c r="C11" t="s">
-        <v>295</v>
+        <v>630</v>
       </c>
       <c r="D11" t="s">
-        <v>616</v>
+        <v>638</v>
       </c>
       <c r="E11">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="F11" t="s">
         <v>300</v>
       </c>
       <c r="G11" t="s">
-        <v>369</v>
+        <v>326</v>
       </c>
       <c r="H11" t="s">
-        <v>462</v>
+        <v>421</v>
       </c>
       <c r="I11" t="s">
-        <v>550</v>
+        <v>515</v>
       </c>
       <c r="J11" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="L11" t="b">
         <v>1</v>
       </c>
       <c r="M11" t="s">
-        <v>652</v>
+        <v>641</v>
       </c>
       <c r="N11" t="s">
         <v>564</v>
@@ -3408,13 +3411,16 @@
         <v>642</v>
       </c>
       <c r="Q11" t="s">
-        <v>647</v>
-      </c>
-      <c r="T11" t="s">
-        <v>108</v>
-      </c>
-      <c r="U11" t="b">
-        <v>0</v>
+        <v>651</v>
+      </c>
+      <c r="R11" t="s">
+        <v>132</v>
+      </c>
+      <c r="S11" t="s">
+        <v>133</v>
+      </c>
+      <c r="U11" t="s">
+        <v>645</v>
       </c>
       <c r="V11" t="b">
         <v>0</v>
@@ -3426,7 +3432,7 @@
         <v>644</v>
       </c>
       <c r="AA11" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AB11" t="s">
         <v>644</v>
@@ -3435,13 +3441,13 @@
         <v>644</v>
       </c>
       <c r="AD11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AE11" t="s">
         <v>644</v>
       </c>
       <c r="AF11" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AG11" t="s">
         <v>644</v>
@@ -3450,36 +3456,36 @@
         <v>644</v>
       </c>
       <c r="AI11" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>105</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
-        <v>205</v>
+        <v>147</v>
       </c>
       <c r="C12" t="s">
-        <v>285</v>
+        <v>628</v>
       </c>
       <c r="D12" t="s">
-        <v>616</v>
+        <v>638</v>
       </c>
       <c r="E12">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="F12" t="s">
         <v>300</v>
       </c>
       <c r="G12" t="s">
-        <v>359</v>
+        <v>313</v>
       </c>
       <c r="H12" t="s">
-        <v>445</v>
+        <v>387</v>
       </c>
       <c r="I12" t="s">
-        <v>538</v>
+        <v>486</v>
       </c>
       <c r="J12" t="s">
         <v>562</v>
@@ -3488,7 +3494,7 @@
         <v>1</v>
       </c>
       <c r="M12" t="s">
-        <v>641</v>
+        <v>655</v>
       </c>
       <c r="N12" t="s">
         <v>564</v>
@@ -3497,16 +3503,16 @@
         <v>564</v>
       </c>
       <c r="P12" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="Q12" t="s">
         <v>651</v>
       </c>
       <c r="R12" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="S12" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="U12" t="s">
         <v>645</v>
@@ -3521,7 +3527,7 @@
         <v>644</v>
       </c>
       <c r="AA12" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AB12" t="s">
         <v>644</v>
@@ -3545,45 +3551,45 @@
         <v>644</v>
       </c>
       <c r="AI12" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>110</v>
+        <v>62</v>
       </c>
       <c r="B13" t="s">
-        <v>210</v>
+        <v>162</v>
       </c>
       <c r="C13" t="s">
-        <v>260</v>
+        <v>630</v>
       </c>
       <c r="D13" t="s">
-        <v>616</v>
+        <v>638</v>
       </c>
       <c r="E13">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="F13" t="s">
         <v>300</v>
       </c>
       <c r="G13" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="H13" t="s">
-        <v>450</v>
-      </c>
-      <c r="I13" s="3">
-        <v>41747</v>
+        <v>402</v>
+      </c>
+      <c r="I13" t="s">
+        <v>498</v>
       </c>
       <c r="J13" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="L13" t="b">
         <v>1</v>
       </c>
       <c r="M13" t="s">
-        <v>646</v>
+        <v>654</v>
       </c>
       <c r="N13" t="s">
         <v>564</v>
@@ -3592,16 +3598,16 @@
         <v>564</v>
       </c>
       <c r="P13" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="Q13" t="s">
         <v>651</v>
       </c>
       <c r="R13" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="S13" t="s">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="U13" t="s">
         <v>645</v>
@@ -3610,16 +3616,16 @@
         <v>0</v>
       </c>
       <c r="Y13" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="Z13" t="s">
         <v>644</v>
       </c>
       <c r="AA13" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AB13" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AC13" t="s">
         <v>644</v>
@@ -3631,7 +3637,7 @@
         <v>644</v>
       </c>
       <c r="AF13" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AG13" t="s">
         <v>644</v>
@@ -3640,45 +3646,45 @@
         <v>644</v>
       </c>
       <c r="AI13" t="s">
-        <v>598</v>
+        <v>575</v>
       </c>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="B14" t="s">
-        <v>193</v>
+        <v>165</v>
       </c>
       <c r="C14" t="s">
-        <v>279</v>
+        <v>261</v>
       </c>
       <c r="D14" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="E14">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="F14" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G14" t="s">
-        <v>351</v>
+        <v>329</v>
       </c>
       <c r="H14" t="s">
-        <v>433</v>
+        <v>405</v>
       </c>
       <c r="I14" t="s">
-        <v>527</v>
+        <v>500</v>
       </c>
       <c r="J14" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="L14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="N14" t="s">
         <v>564</v>
@@ -3687,37 +3693,34 @@
         <v>564</v>
       </c>
       <c r="P14" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="Q14" t="s">
-        <v>651</v>
-      </c>
-      <c r="R14" t="s">
-        <v>108</v>
-      </c>
-      <c r="S14" t="s">
-        <v>122</v>
-      </c>
-      <c r="U14" t="s">
-        <v>645</v>
+        <v>643</v>
+      </c>
+      <c r="T14" t="s">
+        <v>74</v>
+      </c>
+      <c r="U14" t="b">
+        <v>1</v>
       </c>
       <c r="V14" t="b">
         <v>0</v>
       </c>
       <c r="Y14" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="Z14" t="s">
         <v>644</v>
       </c>
       <c r="AA14" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AB14" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AC14" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AD14" t="s">
         <v>644</v>
@@ -3735,70 +3738,67 @@
         <v>644</v>
       </c>
       <c r="AI14" t="s">
-        <v>605</v>
+        <v>594</v>
       </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>74</v>
       </c>
       <c r="B15" t="s">
-        <v>137</v>
+        <v>174</v>
       </c>
       <c r="C15" t="s">
-        <v>237</v>
+        <v>267</v>
       </c>
       <c r="D15" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="E15">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="F15" t="s">
         <v>301</v>
       </c>
       <c r="G15" t="s">
-        <v>304</v>
+        <v>337</v>
       </c>
       <c r="H15" t="s">
-        <v>377</v>
-      </c>
-      <c r="I15" s="3">
-        <v>43660</v>
+        <v>414</v>
+      </c>
+      <c r="I15" t="s">
+        <v>509</v>
       </c>
       <c r="J15" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="L15" t="b">
+        <v>1</v>
+      </c>
+      <c r="M15" t="s">
+        <v>648</v>
+      </c>
+      <c r="N15" t="s">
+        <v>564</v>
+      </c>
+      <c r="O15" t="s">
+        <v>564</v>
+      </c>
+      <c r="P15" t="s">
+        <v>642</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>647</v>
+      </c>
+      <c r="T15" t="s">
+        <v>65</v>
+      </c>
+      <c r="U15" t="b">
+        <v>1</v>
+      </c>
+      <c r="V15" t="b">
         <v>0</v>
       </c>
-      <c r="M15" t="s">
-        <v>641</v>
-      </c>
-      <c r="N15" t="s">
-        <v>564</v>
-      </c>
-      <c r="O15" t="s">
-        <v>564</v>
-      </c>
-      <c r="P15" t="s">
-        <v>649</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>650</v>
-      </c>
-      <c r="R15" t="s">
-        <v>108</v>
-      </c>
-      <c r="S15" t="s">
-        <v>122</v>
-      </c>
-      <c r="U15" t="s">
-        <v>645</v>
-      </c>
-      <c r="V15" t="b">
-        <v>1</v>
-      </c>
       <c r="Y15" t="s">
         <v>644</v>
       </c>
@@ -3806,7 +3806,7 @@
         <v>644</v>
       </c>
       <c r="AA15" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AB15" t="s">
         <v>644</v>
@@ -3827,48 +3827,48 @@
         <v>644</v>
       </c>
       <c r="AH15" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AI15" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>90</v>
+        <v>45</v>
       </c>
       <c r="B16" t="s">
-        <v>190</v>
+        <v>145</v>
       </c>
       <c r="C16" t="s">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="D16" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="E16">
-        <v>34</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G16" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="H16" t="s">
-        <v>430</v>
+        <v>385</v>
       </c>
       <c r="I16" t="s">
-        <v>524</v>
+        <v>484</v>
       </c>
       <c r="J16" t="s">
         <v>562</v>
       </c>
       <c r="L16" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="N16" t="s">
         <v>564</v>
@@ -3877,16 +3877,16 @@
         <v>564</v>
       </c>
       <c r="P16" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="Q16" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="R16" t="s">
-        <v>108</v>
+        <v>65</v>
       </c>
       <c r="S16" t="s">
-        <v>122</v>
+        <v>74</v>
       </c>
       <c r="U16" t="s">
         <v>645</v>
@@ -3895,7 +3895,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="Z16" t="s">
         <v>644</v>
@@ -3907,16 +3907,16 @@
         <v>644</v>
       </c>
       <c r="AC16" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AD16" t="s">
         <v>644</v>
       </c>
       <c r="AE16" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AF16" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AG16" t="s">
         <v>644</v>
@@ -3925,36 +3925,36 @@
         <v>644</v>
       </c>
       <c r="AI16" t="s">
-        <v>605</v>
+        <v>578</v>
       </c>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>64</v>
+        <v>97</v>
       </c>
       <c r="B17" t="s">
-        <v>164</v>
+        <v>197</v>
       </c>
       <c r="C17" t="s">
-        <v>260</v>
+        <v>632</v>
       </c>
       <c r="D17" t="s">
-        <v>616</v>
+        <v>639</v>
       </c>
       <c r="E17">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="F17" t="s">
         <v>300</v>
       </c>
       <c r="G17" t="s">
-        <v>328</v>
+        <v>354</v>
       </c>
       <c r="H17" t="s">
-        <v>404</v>
+        <v>437</v>
       </c>
       <c r="I17" t="s">
-        <v>499</v>
+        <v>531</v>
       </c>
       <c r="J17" t="s">
         <v>558</v>
@@ -3963,7 +3963,7 @@
         <v>1</v>
       </c>
       <c r="M17" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="N17" t="s">
         <v>564</v>
@@ -3975,22 +3975,19 @@
         <v>642</v>
       </c>
       <c r="Q17" t="s">
-        <v>651</v>
-      </c>
-      <c r="R17" t="s">
-        <v>108</v>
-      </c>
-      <c r="S17" t="s">
-        <v>122</v>
-      </c>
-      <c r="U17" t="s">
-        <v>645</v>
+        <v>643</v>
+      </c>
+      <c r="T17" t="s">
+        <v>53</v>
+      </c>
+      <c r="U17" t="b">
+        <v>1</v>
       </c>
       <c r="V17" t="b">
         <v>0</v>
       </c>
       <c r="Y17" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="Z17" t="s">
         <v>645</v>
@@ -4005,10 +4002,10 @@
         <v>644</v>
       </c>
       <c r="AD17" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AE17" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AF17" t="s">
         <v>644</v>
@@ -4020,45 +4017,45 @@
         <v>644</v>
       </c>
       <c r="AI17" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>92</v>
       </c>
       <c r="B18" t="s">
-        <v>135</v>
+        <v>192</v>
       </c>
       <c r="C18" t="s">
-        <v>235</v>
+        <v>633</v>
       </c>
       <c r="D18" t="s">
-        <v>616</v>
+        <v>639</v>
       </c>
       <c r="E18">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="F18" t="s">
         <v>300</v>
       </c>
       <c r="G18" t="s">
-        <v>302</v>
+        <v>350</v>
       </c>
       <c r="H18" t="s">
-        <v>375</v>
+        <v>432</v>
       </c>
       <c r="I18" t="s">
-        <v>475</v>
+        <v>526</v>
       </c>
       <c r="J18" t="s">
         <v>558</v>
       </c>
       <c r="L18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="N18" t="s">
         <v>564</v>
@@ -4073,16 +4070,16 @@
         <v>651</v>
       </c>
       <c r="R18" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="S18" t="s">
-        <v>122</v>
+        <v>53</v>
       </c>
       <c r="U18" t="s">
         <v>645</v>
       </c>
       <c r="V18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y18" t="s">
         <v>644</v>
@@ -4091,22 +4088,22 @@
         <v>644</v>
       </c>
       <c r="AA18" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AB18" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AC18" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AD18" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AE18" t="s">
         <v>644</v>
       </c>
       <c r="AF18" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AG18" t="s">
         <v>644</v>
@@ -4115,36 +4112,36 @@
         <v>644</v>
       </c>
       <c r="AI18" t="s">
-        <v>569</v>
+        <v>595</v>
       </c>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>132</v>
+        <v>50</v>
       </c>
       <c r="B19" t="s">
-        <v>232</v>
+        <v>150</v>
       </c>
       <c r="C19" t="s">
-        <v>629</v>
+        <v>241</v>
       </c>
       <c r="D19" t="s">
-        <v>638</v>
+        <v>619</v>
       </c>
       <c r="E19">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F19" t="s">
         <v>300</v>
       </c>
       <c r="G19" t="s">
-        <v>353</v>
+        <v>308</v>
       </c>
       <c r="H19" t="s">
-        <v>472</v>
+        <v>390</v>
       </c>
       <c r="I19" t="s">
-        <v>556</v>
+        <v>488</v>
       </c>
       <c r="J19" t="s">
         <v>562</v>
@@ -4153,7 +4150,7 @@
         <v>1</v>
       </c>
       <c r="M19" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="N19" t="s">
         <v>564</v>
@@ -4162,16 +4159,19 @@
         <v>564</v>
       </c>
       <c r="P19" t="s">
-        <v>642</v>
+        <v>653</v>
       </c>
       <c r="Q19" t="s">
-        <v>643</v>
-      </c>
-      <c r="T19" t="s">
-        <v>133</v>
-      </c>
-      <c r="U19" t="b">
-        <v>1</v>
+        <v>651</v>
+      </c>
+      <c r="R19" t="s">
+        <v>63</v>
+      </c>
+      <c r="S19" t="s">
+        <v>41</v>
+      </c>
+      <c r="U19" t="s">
+        <v>645</v>
       </c>
       <c r="V19" t="b">
         <v>0</v>
@@ -4189,13 +4189,13 @@
         <v>644</v>
       </c>
       <c r="AC19" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AD19" t="s">
         <v>644</v>
       </c>
       <c r="AE19" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AF19" t="s">
         <v>644</v>
@@ -4207,36 +4207,36 @@
         <v>644</v>
       </c>
       <c r="AI19" t="s">
-        <v>594</v>
+        <v>569</v>
       </c>
     </row>
     <row r="20" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
       <c r="B20" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="C20" t="s">
-        <v>630</v>
+        <v>269</v>
       </c>
       <c r="D20" t="s">
-        <v>638</v>
+        <v>619</v>
       </c>
       <c r="E20">
-        <v>44</v>
+        <v>73</v>
       </c>
       <c r="F20" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G20" t="s">
-        <v>326</v>
+        <v>339</v>
       </c>
       <c r="H20" t="s">
-        <v>473</v>
+        <v>463</v>
       </c>
       <c r="I20" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="J20" t="s">
         <v>558</v>
@@ -4245,7 +4245,7 @@
         <v>1</v>
       </c>
       <c r="M20" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="N20" t="s">
         <v>564</v>
@@ -4257,13 +4257,16 @@
         <v>642</v>
       </c>
       <c r="Q20" t="s">
-        <v>647</v>
-      </c>
-      <c r="T20" t="s">
-        <v>132</v>
-      </c>
-      <c r="U20" t="b">
-        <v>0</v>
+        <v>650</v>
+      </c>
+      <c r="R20" t="s">
+        <v>63</v>
+      </c>
+      <c r="S20" t="s">
+        <v>41</v>
+      </c>
+      <c r="U20" t="s">
+        <v>645</v>
       </c>
       <c r="V20" t="b">
         <v>0</v>
@@ -4272,7 +4275,7 @@
         <v>644</v>
       </c>
       <c r="Z20" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AA20" t="s">
         <v>644</v>
@@ -4293,51 +4296,51 @@
         <v>644</v>
       </c>
       <c r="AG20" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AH20" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AI20" t="s">
-        <v>578</v>
+        <v>602</v>
       </c>
     </row>
     <row r="21" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="B21" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="C21" t="s">
-        <v>630</v>
+        <v>280</v>
       </c>
       <c r="D21" t="s">
-        <v>638</v>
+        <v>619</v>
       </c>
       <c r="E21">
-        <v>52</v>
+        <v>22</v>
       </c>
       <c r="F21" t="s">
         <v>300</v>
       </c>
       <c r="G21" t="s">
-        <v>326</v>
+        <v>352</v>
       </c>
       <c r="H21" t="s">
-        <v>421</v>
+        <v>434</v>
       </c>
       <c r="I21" t="s">
-        <v>515</v>
+        <v>528</v>
       </c>
       <c r="J21" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="L21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M21" t="s">
-        <v>641</v>
+        <v>648</v>
       </c>
       <c r="N21" t="s">
         <v>564</v>
@@ -4346,16 +4349,16 @@
         <v>564</v>
       </c>
       <c r="P21" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
       <c r="Q21" t="s">
         <v>651</v>
       </c>
       <c r="R21" t="s">
-        <v>132</v>
+        <v>63</v>
       </c>
       <c r="S21" t="s">
-        <v>133</v>
+        <v>41</v>
       </c>
       <c r="U21" t="s">
         <v>645</v>
@@ -4364,22 +4367,22 @@
         <v>0</v>
       </c>
       <c r="Y21" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="Z21" t="s">
         <v>644</v>
       </c>
       <c r="AA21" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AB21" t="s">
         <v>644</v>
       </c>
       <c r="AC21" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AD21" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AE21" t="s">
         <v>644</v>
@@ -4394,36 +4397,36 @@
         <v>644</v>
       </c>
       <c r="AI21" t="s">
-        <v>593</v>
+        <v>606</v>
       </c>
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>96</v>
+        <v>39</v>
       </c>
       <c r="B22" t="s">
-        <v>196</v>
+        <v>139</v>
       </c>
       <c r="C22" t="s">
-        <v>629</v>
+        <v>239</v>
       </c>
       <c r="D22" t="s">
-        <v>638</v>
+        <v>566</v>
       </c>
       <c r="E22">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="F22" t="s">
         <v>300</v>
       </c>
       <c r="G22" t="s">
-        <v>353</v>
+        <v>306</v>
       </c>
       <c r="H22" t="s">
-        <v>436</v>
+        <v>379</v>
       </c>
       <c r="I22" t="s">
-        <v>530</v>
+        <v>478</v>
       </c>
       <c r="J22" t="s">
         <v>562</v>
@@ -4441,16 +4444,16 @@
         <v>564</v>
       </c>
       <c r="P22" t="s">
-        <v>653</v>
+        <v>642</v>
       </c>
       <c r="Q22" t="s">
         <v>651</v>
       </c>
       <c r="R22" t="s">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="S22" t="s">
-        <v>133</v>
+        <v>72</v>
       </c>
       <c r="U22" t="s">
         <v>645</v>
@@ -4465,16 +4468,16 @@
         <v>644</v>
       </c>
       <c r="AA22" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AB22" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AC22" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AD22" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AE22" t="s">
         <v>644</v>
@@ -4489,45 +4492,45 @@
         <v>644</v>
       </c>
       <c r="AI22" t="s">
-        <v>583</v>
+        <v>573</v>
       </c>
     </row>
     <row r="23" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>116</v>
       </c>
       <c r="B23" t="s">
-        <v>147</v>
+        <v>216</v>
       </c>
       <c r="C23" t="s">
-        <v>628</v>
+        <v>281</v>
       </c>
       <c r="D23" t="s">
-        <v>638</v>
+        <v>566</v>
       </c>
       <c r="E23">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="F23" t="s">
         <v>300</v>
       </c>
       <c r="G23" t="s">
-        <v>313</v>
+        <v>353</v>
       </c>
       <c r="H23" t="s">
-        <v>387</v>
+        <v>456</v>
       </c>
       <c r="I23" t="s">
-        <v>486</v>
+        <v>546</v>
       </c>
       <c r="J23" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="L23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M23" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="N23" t="s">
         <v>564</v>
@@ -4536,22 +4539,22 @@
         <v>564</v>
       </c>
       <c r="P23" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
       <c r="Q23" t="s">
         <v>651</v>
       </c>
       <c r="R23" t="s">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="S23" t="s">
-        <v>133</v>
+        <v>72</v>
       </c>
       <c r="U23" t="s">
         <v>645</v>
       </c>
       <c r="V23" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y23" t="s">
         <v>644</v>
@@ -4560,13 +4563,13 @@
         <v>644</v>
       </c>
       <c r="AA23" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AB23" t="s">
         <v>644</v>
       </c>
       <c r="AC23" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AD23" t="s">
         <v>644</v>
@@ -4581,48 +4584,48 @@
         <v>644</v>
       </c>
       <c r="AH23" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AI23" t="s">
-        <v>580</v>
+        <v>595</v>
       </c>
     </row>
     <row r="24" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>62</v>
+        <v>114</v>
       </c>
       <c r="B24" t="s">
-        <v>162</v>
+        <v>214</v>
       </c>
       <c r="C24" t="s">
-        <v>630</v>
+        <v>291</v>
       </c>
       <c r="D24" t="s">
-        <v>638</v>
+        <v>566</v>
       </c>
       <c r="E24">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="F24" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G24" t="s">
-        <v>326</v>
+        <v>365</v>
       </c>
       <c r="H24" t="s">
-        <v>402</v>
-      </c>
-      <c r="I24" t="s">
-        <v>498</v>
+        <v>454</v>
+      </c>
+      <c r="I24" s="3">
+        <v>43546</v>
       </c>
       <c r="J24" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="L24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M24" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="N24" t="s">
         <v>564</v>
@@ -4631,16 +4634,16 @@
         <v>564</v>
       </c>
       <c r="P24" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="Q24" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="R24" t="s">
-        <v>132</v>
+        <v>80</v>
       </c>
       <c r="S24" t="s">
-        <v>133</v>
+        <v>72</v>
       </c>
       <c r="U24" t="s">
         <v>645</v>
@@ -4649,13 +4652,13 @@
         <v>0</v>
       </c>
       <c r="Y24" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="Z24" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AA24" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AB24" t="s">
         <v>644</v>
@@ -4670,51 +4673,51 @@
         <v>644</v>
       </c>
       <c r="AF24" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AG24" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AH24" t="s">
         <v>644</v>
       </c>
       <c r="AI24" t="s">
-        <v>575</v>
+        <v>608</v>
       </c>
     </row>
     <row r="25" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="B25" t="s">
-        <v>165</v>
+        <v>201</v>
       </c>
       <c r="C25" t="s">
-        <v>261</v>
+        <v>283</v>
       </c>
       <c r="D25" t="s">
-        <v>617</v>
+        <v>567</v>
       </c>
       <c r="E25">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="F25" t="s">
         <v>301</v>
       </c>
       <c r="G25" t="s">
-        <v>329</v>
+        <v>357</v>
       </c>
       <c r="H25" t="s">
-        <v>405</v>
+        <v>441</v>
       </c>
       <c r="I25" t="s">
-        <v>500</v>
+        <v>535</v>
       </c>
       <c r="J25" t="s">
         <v>558</v>
       </c>
       <c r="L25" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M25" t="s">
         <v>646</v>
@@ -4732,16 +4735,16 @@
         <v>643</v>
       </c>
       <c r="T25" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="U25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V25" t="b">
         <v>0</v>
       </c>
       <c r="Y25" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="Z25" t="s">
         <v>644</v>
@@ -4750,7 +4753,7 @@
         <v>644</v>
       </c>
       <c r="AB25" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AC25" t="s">
         <v>644</v>
@@ -4771,45 +4774,45 @@
         <v>644</v>
       </c>
       <c r="AI25" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
     </row>
     <row r="26" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="B26" t="s">
-        <v>174</v>
+        <v>211</v>
       </c>
       <c r="C26" t="s">
-        <v>267</v>
+        <v>289</v>
       </c>
       <c r="D26" t="s">
-        <v>617</v>
+        <v>567</v>
       </c>
       <c r="E26">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F26" t="s">
         <v>301</v>
       </c>
       <c r="G26" t="s">
-        <v>337</v>
+        <v>363</v>
       </c>
       <c r="H26" t="s">
-        <v>414</v>
+        <v>451</v>
       </c>
       <c r="I26" t="s">
-        <v>509</v>
+        <v>543</v>
       </c>
       <c r="J26" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="L26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M26" t="s">
-        <v>648</v>
+        <v>655</v>
       </c>
       <c r="N26" t="s">
         <v>564</v>
@@ -4824,16 +4827,16 @@
         <v>647</v>
       </c>
       <c r="T26" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="U26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V26" t="b">
         <v>0</v>
       </c>
       <c r="Y26" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="Z26" t="s">
         <v>644</v>
@@ -4842,13 +4845,13 @@
         <v>644</v>
       </c>
       <c r="AB26" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AC26" t="s">
         <v>644</v>
       </c>
       <c r="AD26" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AE26" t="s">
         <v>644</v>
@@ -4860,48 +4863,48 @@
         <v>644</v>
       </c>
       <c r="AH26" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AI26" t="s">
-        <v>570</v>
+        <v>611</v>
       </c>
     </row>
     <row r="27" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>85</v>
+        <v>118</v>
       </c>
       <c r="B27" t="s">
-        <v>185</v>
+        <v>218</v>
       </c>
       <c r="C27" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="D27" t="s">
-        <v>617</v>
+        <v>567</v>
       </c>
       <c r="E27">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="F27" t="s">
         <v>301</v>
       </c>
       <c r="G27" t="s">
-        <v>346</v>
+        <v>333</v>
       </c>
       <c r="H27" t="s">
-        <v>425</v>
-      </c>
-      <c r="I27" t="s">
-        <v>519</v>
+        <v>458</v>
+      </c>
+      <c r="I27" s="3">
+        <v>37460</v>
       </c>
       <c r="J27" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="L27" t="b">
         <v>1</v>
       </c>
       <c r="M27" t="s">
-        <v>646</v>
+        <v>655</v>
       </c>
       <c r="N27" t="s">
         <v>564</v>
@@ -4910,16 +4913,16 @@
         <v>564</v>
       </c>
       <c r="P27" t="s">
-        <v>642</v>
+        <v>653</v>
       </c>
       <c r="Q27" t="s">
         <v>650</v>
       </c>
       <c r="R27" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="S27" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="U27" t="s">
         <v>645</v>
@@ -4934,7 +4937,7 @@
         <v>644</v>
       </c>
       <c r="AA27" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AB27" t="s">
         <v>644</v>
@@ -4943,60 +4946,60 @@
         <v>645</v>
       </c>
       <c r="AD27" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AE27" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AF27" t="s">
         <v>644</v>
       </c>
       <c r="AG27" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AH27" t="s">
         <v>644</v>
       </c>
       <c r="AI27" t="s">
-        <v>603</v>
+        <v>613</v>
       </c>
     </row>
     <row r="28" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>124</v>
+        <v>84</v>
       </c>
       <c r="B28" t="s">
-        <v>224</v>
+        <v>184</v>
       </c>
       <c r="C28" t="s">
-        <v>296</v>
+        <v>274</v>
       </c>
       <c r="D28" t="s">
-        <v>617</v>
+        <v>567</v>
       </c>
       <c r="E28">
-        <v>61</v>
+        <v>32</v>
       </c>
       <c r="F28" t="s">
         <v>300</v>
       </c>
       <c r="G28" t="s">
-        <v>370</v>
+        <v>345</v>
       </c>
       <c r="H28" t="s">
-        <v>464</v>
+        <v>424</v>
       </c>
       <c r="I28" t="s">
-        <v>552</v>
+        <v>518</v>
       </c>
       <c r="J28" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="L28" t="b">
         <v>1</v>
       </c>
       <c r="M28" t="s">
-        <v>646</v>
+        <v>655</v>
       </c>
       <c r="N28" t="s">
         <v>564</v>
@@ -5011,10 +5014,10 @@
         <v>651</v>
       </c>
       <c r="R28" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="S28" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="U28" t="s">
         <v>645</v>
@@ -5032,7 +5035,7 @@
         <v>644</v>
       </c>
       <c r="AB28" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AC28" t="s">
         <v>644</v>
@@ -5044,7 +5047,7 @@
         <v>644</v>
       </c>
       <c r="AF28" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AG28" t="s">
         <v>644</v>
@@ -5053,45 +5056,45 @@
         <v>644</v>
       </c>
       <c r="AI28" t="s">
-        <v>614</v>
+        <v>588</v>
       </c>
     </row>
     <row r="29" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="B29" t="s">
-        <v>212</v>
+        <v>199</v>
       </c>
       <c r="C29" t="s">
-        <v>290</v>
+        <v>264</v>
       </c>
       <c r="D29" t="s">
-        <v>617</v>
+        <v>567</v>
       </c>
       <c r="E29">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
         <v>301</v>
       </c>
       <c r="G29" t="s">
-        <v>364</v>
+        <v>333</v>
       </c>
       <c r="H29" t="s">
-        <v>452</v>
+        <v>439</v>
       </c>
       <c r="I29" t="s">
-        <v>544</v>
+        <v>533</v>
       </c>
       <c r="J29" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="L29" t="b">
         <v>1</v>
       </c>
       <c r="M29" t="s">
-        <v>646</v>
+        <v>654</v>
       </c>
       <c r="N29" t="s">
         <v>564</v>
@@ -5100,16 +5103,16 @@
         <v>564</v>
       </c>
       <c r="P29" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="Q29" t="s">
         <v>650</v>
       </c>
       <c r="R29" t="s">
-        <v>65</v>
+        <v>101</v>
       </c>
       <c r="S29" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="U29" t="s">
         <v>645</v>
@@ -5121,7 +5124,7 @@
         <v>644</v>
       </c>
       <c r="Z29" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AA29" t="s">
         <v>644</v>
@@ -5136,57 +5139,57 @@
         <v>644</v>
       </c>
       <c r="AE29" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AF29" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AG29" t="s">
         <v>644</v>
       </c>
       <c r="AH29" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AI29" t="s">
-        <v>592</v>
+        <v>607</v>
       </c>
     </row>
     <row r="30" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>127</v>
+        <v>83</v>
       </c>
       <c r="B30" t="s">
-        <v>227</v>
+        <v>183</v>
       </c>
       <c r="C30" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="D30" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="E30">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="F30" t="s">
         <v>300</v>
       </c>
       <c r="G30" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="H30" t="s">
-        <v>467</v>
-      </c>
-      <c r="I30" s="3">
-        <v>39355</v>
+        <v>423</v>
+      </c>
+      <c r="I30" t="s">
+        <v>517</v>
       </c>
       <c r="J30" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="L30" t="b">
         <v>1</v>
       </c>
       <c r="M30" t="s">
-        <v>655</v>
+        <v>641</v>
       </c>
       <c r="N30" t="s">
         <v>564</v>
@@ -5198,22 +5201,19 @@
         <v>642</v>
       </c>
       <c r="Q30" t="s">
-        <v>651</v>
-      </c>
-      <c r="R30" t="s">
-        <v>65</v>
-      </c>
-      <c r="S30" t="s">
-        <v>74</v>
-      </c>
-      <c r="U30" t="s">
-        <v>645</v>
+        <v>643</v>
+      </c>
+      <c r="T30" t="s">
+        <v>82</v>
+      </c>
+      <c r="U30" t="b">
+        <v>1</v>
       </c>
       <c r="V30" t="b">
         <v>1</v>
       </c>
       <c r="Y30" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="Z30" t="s">
         <v>644</v>
@@ -5240,48 +5240,48 @@
         <v>644</v>
       </c>
       <c r="AH30" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AI30" t="s">
-        <v>615</v>
+        <v>595</v>
       </c>
     </row>
     <row r="31" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>61</v>
+        <v>77</v>
       </c>
       <c r="B31" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="C31" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
       <c r="D31" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="E31">
-        <v>46</v>
+        <v>75</v>
       </c>
       <c r="F31" t="s">
         <v>300</v>
       </c>
       <c r="G31" t="s">
-        <v>325</v>
+        <v>340</v>
       </c>
       <c r="H31" t="s">
-        <v>401</v>
-      </c>
-      <c r="I31" s="3">
-        <v>44157</v>
+        <v>417</v>
+      </c>
+      <c r="I31" t="s">
+        <v>512</v>
       </c>
       <c r="J31" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="L31" t="b">
         <v>1</v>
       </c>
       <c r="M31" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="N31" t="s">
         <v>564</v>
@@ -5290,16 +5290,16 @@
         <v>564</v>
       </c>
       <c r="P31" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="Q31" t="s">
         <v>651</v>
       </c>
       <c r="R31" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="S31" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="U31" t="s">
         <v>645</v>
@@ -5311,16 +5311,16 @@
         <v>644</v>
       </c>
       <c r="Z31" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AA31" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AB31" t="s">
         <v>644</v>
       </c>
       <c r="AC31" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AD31" t="s">
         <v>644</v>
@@ -5338,45 +5338,45 @@
         <v>644</v>
       </c>
       <c r="AI31" t="s">
-        <v>592</v>
+        <v>601</v>
       </c>
     </row>
     <row r="32" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B32" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="C32" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="D32" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="E32">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="F32" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G32" t="s">
-        <v>311</v>
+        <v>321</v>
       </c>
       <c r="H32" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="I32" t="s">
-        <v>484</v>
+        <v>494</v>
       </c>
       <c r="J32" t="s">
         <v>562</v>
       </c>
       <c r="L32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M32" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="N32" t="s">
         <v>564</v>
@@ -5385,16 +5385,16 @@
         <v>564</v>
       </c>
       <c r="P32" t="s">
-        <v>653</v>
+        <v>642</v>
       </c>
       <c r="Q32" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="R32" t="s">
-        <v>65</v>
+        <v>83</v>
       </c>
       <c r="S32" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="U32" t="s">
         <v>645</v>
@@ -5433,45 +5433,45 @@
         <v>644</v>
       </c>
       <c r="AI32" t="s">
-        <v>578</v>
+        <v>588</v>
       </c>
     </row>
     <row r="33" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>97</v>
+        <v>54</v>
       </c>
       <c r="B33" t="s">
-        <v>197</v>
+        <v>154</v>
       </c>
       <c r="C33" t="s">
-        <v>632</v>
+        <v>250</v>
       </c>
       <c r="D33" t="s">
-        <v>639</v>
+        <v>621</v>
       </c>
       <c r="E33">
-        <v>60</v>
+        <v>36</v>
       </c>
       <c r="F33" t="s">
         <v>300</v>
       </c>
       <c r="G33" t="s">
-        <v>354</v>
+        <v>318</v>
       </c>
       <c r="H33" t="s">
-        <v>437</v>
+        <v>394</v>
       </c>
       <c r="I33" t="s">
-        <v>531</v>
+        <v>492</v>
       </c>
       <c r="J33" t="s">
         <v>558</v>
       </c>
       <c r="L33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M33" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="N33" t="s">
         <v>564</v>
@@ -5480,25 +5480,28 @@
         <v>564</v>
       </c>
       <c r="P33" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
       <c r="Q33" t="s">
-        <v>643</v>
-      </c>
-      <c r="T33" t="s">
-        <v>53</v>
-      </c>
-      <c r="U33" t="b">
-        <v>1</v>
+        <v>651</v>
+      </c>
+      <c r="R33" t="s">
+        <v>83</v>
+      </c>
+      <c r="S33" t="s">
+        <v>82</v>
+      </c>
+      <c r="U33" t="s">
+        <v>645</v>
       </c>
       <c r="V33" t="b">
         <v>0</v>
       </c>
       <c r="Y33" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="Z33" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AA33" t="s">
         <v>644</v>
@@ -5525,45 +5528,45 @@
         <v>644</v>
       </c>
       <c r="AI33" t="s">
-        <v>597</v>
+        <v>585</v>
       </c>
     </row>
     <row r="34" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="B34" t="s">
-        <v>153</v>
+        <v>187</v>
       </c>
       <c r="C34" t="s">
-        <v>634</v>
+        <v>253</v>
       </c>
       <c r="D34" t="s">
-        <v>639</v>
+        <v>621</v>
       </c>
       <c r="E34">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G34" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="H34" t="s">
-        <v>393</v>
+        <v>427</v>
       </c>
       <c r="I34" t="s">
-        <v>491</v>
+        <v>521</v>
       </c>
       <c r="J34" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="L34" t="b">
         <v>1</v>
       </c>
       <c r="M34" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="N34" t="s">
         <v>564</v>
@@ -5572,19 +5575,22 @@
         <v>564</v>
       </c>
       <c r="P34" t="s">
-        <v>642</v>
+        <v>653</v>
       </c>
       <c r="Q34" t="s">
-        <v>647</v>
-      </c>
-      <c r="T34" t="s">
-        <v>97</v>
-      </c>
-      <c r="U34" t="b">
-        <v>0</v>
+        <v>651</v>
+      </c>
+      <c r="R34" t="s">
+        <v>83</v>
+      </c>
+      <c r="S34" t="s">
+        <v>82</v>
+      </c>
+      <c r="U34" t="s">
+        <v>645</v>
       </c>
       <c r="V34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y34" t="s">
         <v>644</v>
@@ -5593,69 +5599,69 @@
         <v>644</v>
       </c>
       <c r="AA34" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AB34" t="s">
         <v>644</v>
       </c>
       <c r="AC34" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AD34" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AE34" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AF34" t="s">
         <v>644</v>
       </c>
       <c r="AG34" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AH34" t="s">
         <v>644</v>
       </c>
       <c r="AI34" t="s">
-        <v>585</v>
+        <v>595</v>
       </c>
     </row>
     <row r="35" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="B35" t="s">
-        <v>149</v>
+        <v>175</v>
       </c>
       <c r="C35" t="s">
-        <v>634</v>
+        <v>268</v>
       </c>
       <c r="D35" t="s">
-        <v>639</v>
+        <v>618</v>
       </c>
       <c r="E35">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="F35" t="s">
         <v>301</v>
       </c>
       <c r="G35" t="s">
-        <v>315</v>
+        <v>338</v>
       </c>
       <c r="H35" t="s">
-        <v>389</v>
+        <v>415</v>
       </c>
       <c r="I35" t="s">
-        <v>487</v>
+        <v>510</v>
       </c>
       <c r="J35" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="L35" t="b">
         <v>1</v>
       </c>
       <c r="M35" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="N35" t="s">
         <v>564</v>
@@ -5670,10 +5676,10 @@
         <v>650</v>
       </c>
       <c r="R35" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="S35" t="s">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="U35" t="s">
         <v>645</v>
@@ -5682,10 +5688,10 @@
         <v>0</v>
       </c>
       <c r="Y35" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="Z35" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AA35" t="s">
         <v>644</v>
@@ -5706,45 +5712,45 @@
         <v>644</v>
       </c>
       <c r="AG35" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AH35" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AI35" t="s">
-        <v>582</v>
+        <v>599</v>
       </c>
     </row>
     <row r="36" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>126</v>
+        <v>51</v>
       </c>
       <c r="B36" t="s">
-        <v>226</v>
+        <v>151</v>
       </c>
       <c r="C36" t="s">
-        <v>636</v>
+        <v>248</v>
       </c>
       <c r="D36" t="s">
-        <v>639</v>
+        <v>618</v>
       </c>
       <c r="E36">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="F36" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G36" t="s">
-        <v>371</v>
+        <v>316</v>
       </c>
       <c r="H36" t="s">
-        <v>466</v>
+        <v>391</v>
       </c>
       <c r="I36" t="s">
-        <v>554</v>
+        <v>489</v>
       </c>
       <c r="J36" t="s">
-        <v>563</v>
+        <v>558</v>
       </c>
       <c r="L36" t="b">
         <v>1</v>
@@ -5759,16 +5765,16 @@
         <v>564</v>
       </c>
       <c r="P36" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
       <c r="Q36" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="R36" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="S36" t="s">
-        <v>53</v>
+        <v>104</v>
       </c>
       <c r="U36" t="s">
         <v>645</v>
@@ -5777,7 +5783,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="Z36" t="s">
         <v>644</v>
@@ -5789,16 +5795,16 @@
         <v>644</v>
       </c>
       <c r="AC36" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AD36" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AE36" t="s">
         <v>644</v>
       </c>
       <c r="AF36" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AG36" t="s">
         <v>644</v>
@@ -5807,39 +5813,39 @@
         <v>644</v>
       </c>
       <c r="AI36" t="s">
-        <v>588</v>
+        <v>583</v>
       </c>
     </row>
     <row r="37" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>46</v>
+        <v>88</v>
       </c>
       <c r="B37" t="s">
-        <v>146</v>
+        <v>188</v>
       </c>
       <c r="C37" t="s">
-        <v>635</v>
+        <v>277</v>
       </c>
       <c r="D37" t="s">
-        <v>639</v>
+        <v>568</v>
       </c>
       <c r="E37">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F37" t="s">
         <v>301</v>
       </c>
       <c r="G37" t="s">
-        <v>312</v>
+        <v>348</v>
       </c>
       <c r="H37" t="s">
-        <v>386</v>
+        <v>428</v>
       </c>
       <c r="I37" t="s">
-        <v>485</v>
+        <v>522</v>
       </c>
       <c r="J37" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="L37" t="b">
         <v>1</v>
@@ -5854,19 +5860,16 @@
         <v>564</v>
       </c>
       <c r="P37" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="Q37" t="s">
-        <v>650</v>
-      </c>
-      <c r="R37" t="s">
-        <v>97</v>
-      </c>
-      <c r="S37" t="s">
-        <v>53</v>
-      </c>
-      <c r="U37" t="s">
-        <v>645</v>
+        <v>647</v>
+      </c>
+      <c r="T37" t="s">
+        <v>66</v>
+      </c>
+      <c r="U37" t="b">
+        <v>0</v>
       </c>
       <c r="V37" t="b">
         <v>0</v>
@@ -5875,7 +5878,7 @@
         <v>644</v>
       </c>
       <c r="Z37" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AA37" t="s">
         <v>644</v>
@@ -5896,42 +5899,42 @@
         <v>644</v>
       </c>
       <c r="AG37" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AH37" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AI37" t="s">
-        <v>579</v>
+        <v>588</v>
       </c>
     </row>
     <row r="38" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>98</v>
+        <v>125</v>
       </c>
       <c r="B38" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="C38" t="s">
-        <v>631</v>
+        <v>245</v>
       </c>
       <c r="D38" t="s">
-        <v>639</v>
+        <v>568</v>
       </c>
       <c r="E38">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="F38" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G38" t="s">
-        <v>355</v>
+        <v>312</v>
       </c>
       <c r="H38" t="s">
-        <v>438</v>
+        <v>465</v>
       </c>
       <c r="I38" t="s">
-        <v>532</v>
+        <v>553</v>
       </c>
       <c r="J38" t="s">
         <v>562</v>
@@ -5940,7 +5943,7 @@
         <v>1</v>
       </c>
       <c r="M38" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="N38" t="s">
         <v>564</v>
@@ -5949,16 +5952,16 @@
         <v>564</v>
       </c>
       <c r="P38" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
       <c r="Q38" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="R38" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="S38" t="s">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="U38" t="s">
         <v>645</v>
@@ -5970,10 +5973,10 @@
         <v>644</v>
       </c>
       <c r="Z38" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AA38" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AB38" t="s">
         <v>644</v>
@@ -5982,7 +5985,7 @@
         <v>644</v>
       </c>
       <c r="AD38" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AE38" t="s">
         <v>644</v>
@@ -5991,51 +5994,51 @@
         <v>644</v>
       </c>
       <c r="AG38" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AH38" t="s">
         <v>644</v>
       </c>
       <c r="AI38" t="s">
-        <v>501</v>
+        <v>610</v>
       </c>
     </row>
     <row r="39" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="B39" t="s">
-        <v>192</v>
+        <v>221</v>
       </c>
       <c r="C39" t="s">
-        <v>633</v>
+        <v>294</v>
       </c>
       <c r="D39" t="s">
-        <v>639</v>
+        <v>568</v>
       </c>
       <c r="E39">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="F39" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G39" t="s">
-        <v>350</v>
+        <v>368</v>
       </c>
       <c r="H39" t="s">
-        <v>432</v>
-      </c>
-      <c r="I39" t="s">
-        <v>526</v>
+        <v>461</v>
+      </c>
+      <c r="I39" s="3">
+        <v>44441</v>
       </c>
       <c r="J39" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="L39" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M39" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="N39" t="s">
         <v>564</v>
@@ -6047,19 +6050,19 @@
         <v>653</v>
       </c>
       <c r="Q39" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="R39" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="S39" t="s">
-        <v>53</v>
+        <v>88</v>
       </c>
       <c r="U39" t="s">
         <v>645</v>
       </c>
       <c r="V39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="s">
         <v>644</v>
@@ -6068,7 +6071,7 @@
         <v>644</v>
       </c>
       <c r="AA39" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AB39" t="s">
         <v>645</v>
@@ -6077,7 +6080,7 @@
         <v>644</v>
       </c>
       <c r="AD39" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AE39" t="s">
         <v>644</v>
@@ -6086,51 +6089,51 @@
         <v>644</v>
       </c>
       <c r="AG39" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AH39" t="s">
         <v>644</v>
       </c>
       <c r="AI39" t="s">
-        <v>595</v>
+        <v>494</v>
       </c>
     </row>
     <row r="40" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B40" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="C40" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D40" t="s">
-        <v>619</v>
+        <v>565</v>
       </c>
       <c r="E40">
         <v>24</v>
       </c>
       <c r="F40" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G40" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="H40" t="s">
-        <v>403</v>
-      </c>
-      <c r="I40" s="3">
-        <v>44363</v>
+        <v>400</v>
+      </c>
+      <c r="I40" t="s">
+        <v>497</v>
       </c>
       <c r="J40" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="L40" t="b">
         <v>1</v>
       </c>
       <c r="M40" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="N40" t="s">
         <v>564</v>
@@ -6139,16 +6142,19 @@
         <v>564</v>
       </c>
       <c r="P40" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
       <c r="Q40" t="s">
-        <v>643</v>
-      </c>
-      <c r="T40" t="s">
-        <v>41</v>
-      </c>
-      <c r="U40" t="b">
-        <v>0</v>
+        <v>651</v>
+      </c>
+      <c r="R40" t="s">
+        <v>48</v>
+      </c>
+      <c r="S40" t="s">
+        <v>117</v>
+      </c>
+      <c r="U40" t="s">
+        <v>645</v>
       </c>
       <c r="V40" t="b">
         <v>0</v>
@@ -6160,13 +6166,13 @@
         <v>644</v>
       </c>
       <c r="AA40" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AB40" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AC40" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AD40" t="s">
         <v>644</v>
@@ -6175,7 +6181,7 @@
         <v>644</v>
       </c>
       <c r="AF40" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AG40" t="s">
         <v>645</v>
@@ -6189,40 +6195,40 @@
     </row>
     <row r="41" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>41</v>
+        <v>129</v>
       </c>
       <c r="B41" t="s">
-        <v>141</v>
+        <v>229</v>
       </c>
       <c r="C41" t="s">
-        <v>241</v>
+        <v>297</v>
       </c>
       <c r="D41" t="s">
-        <v>619</v>
+        <v>565</v>
       </c>
       <c r="E41">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="F41" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G41" t="s">
-        <v>308</v>
+        <v>372</v>
       </c>
       <c r="H41" t="s">
-        <v>381</v>
-      </c>
-      <c r="I41" t="s">
-        <v>480</v>
+        <v>469</v>
+      </c>
+      <c r="I41" s="3">
+        <v>41194</v>
       </c>
       <c r="J41" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="L41" t="b">
         <v>1</v>
       </c>
       <c r="M41" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="N41" t="s">
         <v>564</v>
@@ -6234,13 +6240,16 @@
         <v>642</v>
       </c>
       <c r="Q41" t="s">
-        <v>647</v>
-      </c>
-      <c r="T41" t="s">
-        <v>63</v>
-      </c>
-      <c r="U41" t="b">
-        <v>1</v>
+        <v>650</v>
+      </c>
+      <c r="R41" t="s">
+        <v>48</v>
+      </c>
+      <c r="S41" t="s">
+        <v>117</v>
+      </c>
+      <c r="U41" t="s">
+        <v>645</v>
       </c>
       <c r="V41" t="b">
         <v>0</v>
@@ -6255,7 +6264,7 @@
         <v>644</v>
       </c>
       <c r="AB41" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AC41" t="s">
         <v>644</v>
@@ -6267,7 +6276,7 @@
         <v>644</v>
       </c>
       <c r="AF41" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AG41" t="s">
         <v>644</v>
@@ -6276,45 +6285,45 @@
         <v>644</v>
       </c>
       <c r="AI41" t="s">
-        <v>575</v>
+        <v>611</v>
       </c>
     </row>
     <row r="42" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>50</v>
+        <v>102</v>
       </c>
       <c r="B42" t="s">
-        <v>150</v>
+        <v>202</v>
       </c>
       <c r="C42" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D42" t="s">
-        <v>619</v>
+        <v>565</v>
       </c>
       <c r="E42">
-        <v>42</v>
+        <v>67</v>
       </c>
       <c r="F42" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G42" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="H42" t="s">
-        <v>390</v>
-      </c>
-      <c r="I42" t="s">
-        <v>488</v>
+        <v>442</v>
+      </c>
+      <c r="I42" s="3">
+        <v>36783</v>
       </c>
       <c r="J42" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="L42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M42" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="N42" t="s">
         <v>564</v>
@@ -6323,16 +6332,16 @@
         <v>564</v>
       </c>
       <c r="P42" t="s">
-        <v>653</v>
+        <v>642</v>
       </c>
       <c r="Q42" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="R42" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="S42" t="s">
-        <v>41</v>
+        <v>117</v>
       </c>
       <c r="U42" t="s">
         <v>645</v>
@@ -6341,10 +6350,10 @@
         <v>0</v>
       </c>
       <c r="Y42" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="Z42" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AA42" t="s">
         <v>644</v>
@@ -6353,7 +6362,7 @@
         <v>644</v>
       </c>
       <c r="AC42" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AD42" t="s">
         <v>644</v>
@@ -6371,45 +6380,45 @@
         <v>644</v>
       </c>
       <c r="AI42" t="s">
-        <v>569</v>
+        <v>599</v>
       </c>
     </row>
     <row r="43" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>123</v>
+        <v>59</v>
       </c>
       <c r="B43" t="s">
-        <v>223</v>
+        <v>159</v>
       </c>
       <c r="C43" t="s">
-        <v>269</v>
+        <v>255</v>
       </c>
       <c r="D43" t="s">
-        <v>619</v>
+        <v>565</v>
       </c>
       <c r="E43">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F43" t="s">
         <v>301</v>
       </c>
       <c r="G43" t="s">
-        <v>339</v>
+        <v>323</v>
       </c>
       <c r="H43" t="s">
-        <v>463</v>
+        <v>399</v>
       </c>
       <c r="I43" t="s">
-        <v>551</v>
+        <v>496</v>
       </c>
       <c r="J43" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="L43" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M43" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="N43" t="s">
         <v>564</v>
@@ -6418,16 +6427,16 @@
         <v>564</v>
       </c>
       <c r="P43" t="s">
-        <v>642</v>
+        <v>653</v>
       </c>
       <c r="Q43" t="s">
         <v>650</v>
       </c>
       <c r="R43" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="S43" t="s">
-        <v>41</v>
+        <v>117</v>
       </c>
       <c r="U43" t="s">
         <v>645</v>
@@ -6439,7 +6448,7 @@
         <v>644</v>
       </c>
       <c r="Z43" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AA43" t="s">
         <v>644</v>
@@ -6454,57 +6463,57 @@
         <v>644</v>
       </c>
       <c r="AE43" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AF43" t="s">
         <v>644</v>
       </c>
       <c r="AG43" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AH43" t="s">
         <v>644</v>
       </c>
       <c r="AI43" t="s">
-        <v>602</v>
+        <v>590</v>
       </c>
     </row>
     <row r="44" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>68</v>
+        <v>107</v>
       </c>
       <c r="B44" t="s">
-        <v>168</v>
+        <v>207</v>
       </c>
       <c r="C44" t="s">
-        <v>263</v>
+        <v>286</v>
       </c>
       <c r="D44" t="s">
-        <v>619</v>
+        <v>565</v>
       </c>
       <c r="E44">
-        <v>60</v>
+        <v>38</v>
       </c>
       <c r="F44" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G44" t="s">
-        <v>332</v>
+        <v>360</v>
       </c>
       <c r="H44" t="s">
-        <v>408</v>
+        <v>447</v>
       </c>
       <c r="I44" t="s">
-        <v>503</v>
+        <v>540</v>
       </c>
       <c r="J44" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="L44" t="b">
         <v>1</v>
       </c>
       <c r="M44" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="N44" t="s">
         <v>564</v>
@@ -6513,16 +6522,16 @@
         <v>564</v>
       </c>
       <c r="P44" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
       <c r="Q44" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="R44" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="S44" t="s">
-        <v>41</v>
+        <v>117</v>
       </c>
       <c r="U44" t="s">
         <v>645</v>
@@ -6534,10 +6543,10 @@
         <v>644</v>
       </c>
       <c r="Z44" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AA44" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AB44" t="s">
         <v>644</v>
@@ -6552,45 +6561,45 @@
         <v>644</v>
       </c>
       <c r="AF44" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AG44" t="s">
         <v>644</v>
       </c>
       <c r="AH44" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AI44" t="s">
-        <v>597</v>
+        <v>576</v>
       </c>
     </row>
     <row r="45" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="B45" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
       <c r="C45" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D45" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="E45">
-        <v>48</v>
+        <v>23</v>
       </c>
       <c r="F45" t="s">
         <v>301</v>
       </c>
       <c r="G45" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="H45" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="I45" t="s">
-        <v>534</v>
+        <v>523</v>
       </c>
       <c r="J45" t="s">
         <v>561</v>
@@ -6599,7 +6608,7 @@
         <v>1</v>
       </c>
       <c r="M45" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="N45" t="s">
         <v>564</v>
@@ -6608,19 +6617,16 @@
         <v>564</v>
       </c>
       <c r="P45" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="Q45" t="s">
-        <v>650</v>
-      </c>
-      <c r="R45" t="s">
-        <v>63</v>
-      </c>
-      <c r="S45" t="s">
-        <v>41</v>
-      </c>
-      <c r="U45" t="s">
-        <v>645</v>
+        <v>647</v>
+      </c>
+      <c r="T45" t="s">
+        <v>113</v>
+      </c>
+      <c r="U45" t="b">
+        <v>0</v>
       </c>
       <c r="V45" t="b">
         <v>0</v>
@@ -6638,13 +6644,13 @@
         <v>644</v>
       </c>
       <c r="AC45" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AD45" t="s">
         <v>644</v>
       </c>
       <c r="AE45" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AF45" t="s">
         <v>645</v>
@@ -6656,42 +6662,42 @@
         <v>644</v>
       </c>
       <c r="AI45" t="s">
-        <v>608</v>
+        <v>604</v>
       </c>
     </row>
     <row r="46" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="B46" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="C46" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="D46" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="E46">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="F46" t="s">
         <v>300</v>
       </c>
       <c r="G46" t="s">
-        <v>352</v>
+        <v>335</v>
       </c>
       <c r="H46" t="s">
-        <v>434</v>
+        <v>411</v>
       </c>
       <c r="I46" t="s">
-        <v>528</v>
+        <v>506</v>
       </c>
       <c r="J46" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="L46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M46" t="s">
         <v>648</v>
@@ -6703,16 +6709,16 @@
         <v>564</v>
       </c>
       <c r="P46" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="Q46" t="s">
         <v>651</v>
       </c>
       <c r="R46" t="s">
-        <v>63</v>
+        <v>113</v>
       </c>
       <c r="S46" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="U46" t="s">
         <v>645</v>
@@ -6736,7 +6742,7 @@
         <v>645</v>
       </c>
       <c r="AD46" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AE46" t="s">
         <v>644</v>
@@ -6748,48 +6754,48 @@
         <v>644</v>
       </c>
       <c r="AH46" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AI46" t="s">
-        <v>606</v>
+        <v>589</v>
       </c>
     </row>
     <row r="47" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="B47" t="s">
-        <v>176</v>
+        <v>143</v>
       </c>
       <c r="C47" t="s">
-        <v>269</v>
+        <v>240</v>
       </c>
       <c r="D47" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="E47">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="F47" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G47" t="s">
-        <v>339</v>
+        <v>307</v>
       </c>
       <c r="H47" t="s">
-        <v>416</v>
+        <v>383</v>
       </c>
       <c r="I47" t="s">
-        <v>511</v>
+        <v>482</v>
       </c>
       <c r="J47" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="L47" t="b">
         <v>1</v>
       </c>
       <c r="M47" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
       <c r="N47" t="s">
         <v>564</v>
@@ -6798,16 +6804,16 @@
         <v>564</v>
       </c>
       <c r="P47" t="s">
-        <v>653</v>
+        <v>642</v>
       </c>
       <c r="Q47" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="R47" t="s">
-        <v>63</v>
+        <v>113</v>
       </c>
       <c r="S47" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="U47" t="s">
         <v>645</v>
@@ -6816,22 +6822,22 @@
         <v>0</v>
       </c>
       <c r="Y47" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="Z47" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AA47" t="s">
         <v>644</v>
       </c>
       <c r="AB47" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AC47" t="s">
         <v>644</v>
       </c>
       <c r="AD47" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AE47" t="s">
         <v>644</v>
@@ -6840,45 +6846,45 @@
         <v>644</v>
       </c>
       <c r="AG47" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AH47" t="s">
         <v>644</v>
       </c>
       <c r="AI47" t="s">
-        <v>600</v>
+        <v>576</v>
       </c>
     </row>
     <row r="48" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>120</v>
+        <v>40</v>
       </c>
       <c r="B48" t="s">
-        <v>220</v>
+        <v>140</v>
       </c>
       <c r="C48" t="s">
-        <v>282</v>
+        <v>240</v>
       </c>
       <c r="D48" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="E48">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="F48" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G48" t="s">
-        <v>356</v>
+        <v>307</v>
       </c>
       <c r="H48" t="s">
-        <v>460</v>
+        <v>380</v>
       </c>
       <c r="I48" t="s">
-        <v>549</v>
+        <v>479</v>
       </c>
       <c r="J48" t="s">
-        <v>563</v>
+        <v>559</v>
       </c>
       <c r="L48" t="b">
         <v>1</v>
@@ -6896,13 +6902,13 @@
         <v>649</v>
       </c>
       <c r="Q48" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="R48" t="s">
-        <v>63</v>
+        <v>113</v>
       </c>
       <c r="S48" t="s">
-        <v>41</v>
+        <v>89</v>
       </c>
       <c r="U48" t="s">
         <v>645</v>
@@ -6920,13 +6926,13 @@
         <v>644</v>
       </c>
       <c r="AB48" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AC48" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AD48" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AE48" t="s">
         <v>644</v>
@@ -6938,48 +6944,48 @@
         <v>644</v>
       </c>
       <c r="AH48" t="s">
-        <v>645</v>
-      </c>
-      <c r="AI48" s="4">
-        <v>27977</v>
+        <v>644</v>
+      </c>
+      <c r="AI48" t="s">
+        <v>574</v>
       </c>
     </row>
     <row r="49" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>80</v>
+        <v>122</v>
       </c>
       <c r="B49" t="s">
-        <v>180</v>
+        <v>222</v>
       </c>
       <c r="C49" t="s">
-        <v>272</v>
+        <v>295</v>
       </c>
       <c r="D49" t="s">
-        <v>566</v>
+        <v>616</v>
       </c>
       <c r="E49">
-        <v>52</v>
+        <v>74</v>
       </c>
       <c r="F49" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G49" t="s">
-        <v>343</v>
+        <v>369</v>
       </c>
       <c r="H49" t="s">
-        <v>420</v>
+        <v>462</v>
       </c>
       <c r="I49" t="s">
-        <v>514</v>
+        <v>550</v>
       </c>
       <c r="J49" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="L49" t="b">
         <v>1</v>
       </c>
       <c r="M49" t="s">
-        <v>646</v>
+        <v>652</v>
       </c>
       <c r="N49" t="s">
         <v>564</v>
@@ -6991,13 +6997,13 @@
         <v>642</v>
       </c>
       <c r="Q49" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="T49" t="s">
-        <v>72</v>
+        <v>108</v>
       </c>
       <c r="U49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V49" t="b">
         <v>0</v>
@@ -7018,7 +7024,7 @@
         <v>644</v>
       </c>
       <c r="AD49" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AE49" t="s">
         <v>644</v>
@@ -7033,45 +7039,45 @@
         <v>644</v>
       </c>
       <c r="AI49" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
     </row>
     <row r="50" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>72</v>
+        <v>105</v>
       </c>
       <c r="B50" t="s">
-        <v>172</v>
+        <v>205</v>
       </c>
       <c r="C50" t="s">
-        <v>236</v>
+        <v>285</v>
       </c>
       <c r="D50" t="s">
-        <v>566</v>
+        <v>616</v>
       </c>
       <c r="E50">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="F50" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G50" t="s">
-        <v>303</v>
+        <v>359</v>
       </c>
       <c r="H50" t="s">
-        <v>412</v>
+        <v>445</v>
       </c>
       <c r="I50" t="s">
-        <v>507</v>
+        <v>538</v>
       </c>
       <c r="J50" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="L50" t="b">
         <v>1</v>
       </c>
       <c r="M50" t="s">
-        <v>646</v>
+        <v>641</v>
       </c>
       <c r="N50" t="s">
         <v>564</v>
@@ -7080,16 +7086,19 @@
         <v>564</v>
       </c>
       <c r="P50" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
       <c r="Q50" t="s">
-        <v>647</v>
-      </c>
-      <c r="T50" t="s">
-        <v>80</v>
-      </c>
-      <c r="U50" t="b">
-        <v>1</v>
+        <v>651</v>
+      </c>
+      <c r="R50" t="s">
+        <v>108</v>
+      </c>
+      <c r="S50" t="s">
+        <v>122</v>
+      </c>
+      <c r="U50" t="s">
+        <v>645</v>
       </c>
       <c r="V50" t="b">
         <v>0</v>
@@ -7098,16 +7107,16 @@
         <v>644</v>
       </c>
       <c r="Z50" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AA50" t="s">
         <v>644</v>
       </c>
       <c r="AB50" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AC50" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AD50" t="s">
         <v>644</v>
@@ -7125,36 +7134,36 @@
         <v>644</v>
       </c>
       <c r="AI50" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
     <row r="51" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>128</v>
+        <v>110</v>
       </c>
       <c r="B51" t="s">
-        <v>228</v>
+        <v>210</v>
       </c>
       <c r="C51" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
       <c r="D51" t="s">
-        <v>566</v>
+        <v>616</v>
       </c>
       <c r="E51">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F51" t="s">
         <v>300</v>
       </c>
       <c r="G51" t="s">
-        <v>313</v>
+        <v>328</v>
       </c>
       <c r="H51" t="s">
-        <v>468</v>
+        <v>450</v>
       </c>
       <c r="I51" s="3">
-        <v>43445</v>
+        <v>41747</v>
       </c>
       <c r="J51" t="s">
         <v>560</v>
@@ -7163,7 +7172,7 @@
         <v>1</v>
       </c>
       <c r="M51" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="N51" t="s">
         <v>564</v>
@@ -7172,16 +7181,16 @@
         <v>564</v>
       </c>
       <c r="P51" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
       <c r="Q51" t="s">
         <v>651</v>
       </c>
       <c r="R51" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="S51" t="s">
-        <v>72</v>
+        <v>122</v>
       </c>
       <c r="U51" t="s">
         <v>645</v>
@@ -7193,13 +7202,13 @@
         <v>644</v>
       </c>
       <c r="Z51" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AA51" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AB51" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AC51" t="s">
         <v>644</v>
@@ -7214,51 +7223,51 @@
         <v>644</v>
       </c>
       <c r="AG51" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AH51" t="s">
         <v>644</v>
       </c>
       <c r="AI51" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
     </row>
     <row r="52" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>39</v>
+        <v>64</v>
       </c>
       <c r="B52" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="C52" t="s">
-        <v>239</v>
+        <v>260</v>
       </c>
       <c r="D52" t="s">
-        <v>566</v>
+        <v>616</v>
       </c>
       <c r="E52">
-        <v>66</v>
+        <v>52</v>
       </c>
       <c r="F52" t="s">
         <v>300</v>
       </c>
       <c r="G52" t="s">
-        <v>306</v>
+        <v>328</v>
       </c>
       <c r="H52" t="s">
-        <v>379</v>
+        <v>404</v>
       </c>
       <c r="I52" t="s">
-        <v>478</v>
+        <v>499</v>
       </c>
       <c r="J52" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="L52" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M52" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="N52" t="s">
         <v>564</v>
@@ -7273,10 +7282,10 @@
         <v>651</v>
       </c>
       <c r="R52" t="s">
-        <v>80</v>
+        <v>108</v>
       </c>
       <c r="S52" t="s">
-        <v>72</v>
+        <v>122</v>
       </c>
       <c r="U52" t="s">
         <v>645</v>
@@ -7288,22 +7297,22 @@
         <v>644</v>
       </c>
       <c r="Z52" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AA52" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AB52" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AC52" t="s">
         <v>644</v>
       </c>
       <c r="AD52" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AE52" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AF52" t="s">
         <v>644</v>
@@ -7315,24 +7324,24 @@
         <v>644</v>
       </c>
       <c r="AI52" t="s">
-        <v>573</v>
+        <v>593</v>
       </c>
     </row>
     <row r="53" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="B53" t="s">
-        <v>216</v>
+        <v>232</v>
       </c>
       <c r="C53" t="s">
-        <v>281</v>
+        <v>629</v>
       </c>
       <c r="D53" t="s">
-        <v>566</v>
+        <v>638</v>
       </c>
       <c r="E53">
-        <v>10</v>
+        <v>41</v>
       </c>
       <c r="F53" t="s">
         <v>300</v>
@@ -7341,46 +7350,43 @@
         <v>353</v>
       </c>
       <c r="H53" t="s">
-        <v>456</v>
+        <v>472</v>
       </c>
       <c r="I53" t="s">
-        <v>546</v>
+        <v>556</v>
       </c>
       <c r="J53" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="L53" t="b">
+        <v>1</v>
+      </c>
+      <c r="M53" t="s">
+        <v>654</v>
+      </c>
+      <c r="N53" t="s">
+        <v>564</v>
+      </c>
+      <c r="O53" t="s">
+        <v>564</v>
+      </c>
+      <c r="P53" t="s">
+        <v>642</v>
+      </c>
+      <c r="Q53" t="s">
+        <v>643</v>
+      </c>
+      <c r="T53" t="s">
+        <v>133</v>
+      </c>
+      <c r="U53" t="b">
+        <v>1</v>
+      </c>
+      <c r="V53" t="b">
         <v>0</v>
       </c>
-      <c r="M53" t="s">
-        <v>648</v>
-      </c>
-      <c r="N53" t="s">
-        <v>564</v>
-      </c>
-      <c r="O53" t="s">
-        <v>564</v>
-      </c>
-      <c r="P53" t="s">
-        <v>649</v>
-      </c>
-      <c r="Q53" t="s">
-        <v>651</v>
-      </c>
-      <c r="R53" t="s">
-        <v>80</v>
-      </c>
-      <c r="S53" t="s">
-        <v>72</v>
-      </c>
-      <c r="U53" t="s">
-        <v>645</v>
-      </c>
-      <c r="V53" t="b">
-        <v>1</v>
-      </c>
       <c r="Y53" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="Z53" t="s">
         <v>644</v>
@@ -7398,7 +7404,7 @@
         <v>644</v>
       </c>
       <c r="AE53" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AF53" t="s">
         <v>644</v>
@@ -7407,48 +7413,48 @@
         <v>644</v>
       </c>
       <c r="AH53" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AI53" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="54" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>36</v>
+        <v>133</v>
       </c>
       <c r="B54" t="s">
-        <v>136</v>
+        <v>233</v>
       </c>
       <c r="C54" t="s">
-        <v>236</v>
+        <v>630</v>
       </c>
       <c r="D54" t="s">
-        <v>566</v>
+        <v>638</v>
       </c>
       <c r="E54">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G54" t="s">
-        <v>303</v>
+        <v>326</v>
       </c>
       <c r="H54" t="s">
-        <v>376</v>
+        <v>473</v>
       </c>
       <c r="I54" t="s">
-        <v>476</v>
+        <v>557</v>
       </c>
       <c r="J54" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="L54" t="b">
         <v>1</v>
       </c>
       <c r="M54" t="s">
-        <v>641</v>
+        <v>648</v>
       </c>
       <c r="N54" t="s">
         <v>564</v>
@@ -7457,19 +7463,16 @@
         <v>564</v>
       </c>
       <c r="P54" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="Q54" t="s">
-        <v>650</v>
-      </c>
-      <c r="R54" t="s">
-        <v>80</v>
-      </c>
-      <c r="S54" t="s">
-        <v>72</v>
-      </c>
-      <c r="U54" t="s">
-        <v>645</v>
+        <v>647</v>
+      </c>
+      <c r="T54" t="s">
+        <v>132</v>
+      </c>
+      <c r="U54" t="b">
+        <v>0</v>
       </c>
       <c r="V54" t="b">
         <v>0</v>
@@ -7487,7 +7490,7 @@
         <v>644</v>
       </c>
       <c r="AC54" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AD54" t="s">
         <v>644</v>
@@ -7502,39 +7505,39 @@
         <v>644</v>
       </c>
       <c r="AH54" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AI54" t="s">
-        <v>570</v>
+        <v>578</v>
       </c>
     </row>
     <row r="55" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
       <c r="B55" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
       <c r="C55" t="s">
-        <v>258</v>
+        <v>629</v>
       </c>
       <c r="D55" t="s">
-        <v>566</v>
+        <v>638</v>
       </c>
       <c r="E55">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="F55" t="s">
         <v>300</v>
       </c>
       <c r="G55" t="s">
-        <v>326</v>
+        <v>353</v>
       </c>
       <c r="H55" t="s">
-        <v>446</v>
+        <v>436</v>
       </c>
       <c r="I55" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="J55" t="s">
         <v>562</v>
@@ -7543,7 +7546,7 @@
         <v>1</v>
       </c>
       <c r="M55" t="s">
-        <v>648</v>
+        <v>654</v>
       </c>
       <c r="N55" t="s">
         <v>564</v>
@@ -7552,16 +7555,16 @@
         <v>564</v>
       </c>
       <c r="P55" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="Q55" t="s">
         <v>651</v>
       </c>
       <c r="R55" t="s">
-        <v>80</v>
+        <v>132</v>
       </c>
       <c r="S55" t="s">
-        <v>72</v>
+        <v>133</v>
       </c>
       <c r="U55" t="s">
         <v>645</v>
@@ -7570,7 +7573,7 @@
         <v>0</v>
       </c>
       <c r="Y55" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="Z55" t="s">
         <v>644</v>
@@ -7579,10 +7582,10 @@
         <v>644</v>
       </c>
       <c r="AB55" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AC55" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AD55" t="s">
         <v>644</v>
@@ -7600,36 +7603,36 @@
         <v>644</v>
       </c>
       <c r="AI55" t="s">
-        <v>610</v>
+        <v>583</v>
       </c>
     </row>
     <row r="56" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="B56" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="C56" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="D56" t="s">
-        <v>566</v>
+        <v>617</v>
       </c>
       <c r="E56">
-        <v>36</v>
+        <v>57</v>
       </c>
       <c r="F56" t="s">
         <v>301</v>
       </c>
       <c r="G56" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
       <c r="H56" t="s">
-        <v>449</v>
+        <v>425</v>
       </c>
       <c r="I56" t="s">
-        <v>542</v>
+        <v>519</v>
       </c>
       <c r="J56" t="s">
         <v>563</v>
@@ -7638,7 +7641,7 @@
         <v>1</v>
       </c>
       <c r="M56" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="N56" t="s">
         <v>564</v>
@@ -7647,16 +7650,16 @@
         <v>564</v>
       </c>
       <c r="P56" t="s">
-        <v>653</v>
+        <v>642</v>
       </c>
       <c r="Q56" t="s">
         <v>650</v>
       </c>
       <c r="R56" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="S56" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="U56" t="s">
         <v>645</v>
@@ -7668,7 +7671,7 @@
         <v>644</v>
       </c>
       <c r="Z56" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AA56" t="s">
         <v>645</v>
@@ -7677,7 +7680,7 @@
         <v>644</v>
       </c>
       <c r="AC56" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AD56" t="s">
         <v>644</v>
@@ -7695,42 +7698,42 @@
         <v>644</v>
       </c>
       <c r="AI56" t="s">
-        <v>585</v>
+        <v>603</v>
       </c>
     </row>
     <row r="57" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="B57" t="s">
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="C57" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="D57" t="s">
-        <v>566</v>
+        <v>617</v>
       </c>
       <c r="E57">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="F57" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G57" t="s">
-        <v>365</v>
+        <v>370</v>
       </c>
       <c r="H57" t="s">
-        <v>454</v>
-      </c>
-      <c r="I57" s="3">
-        <v>43546</v>
+        <v>464</v>
+      </c>
+      <c r="I57" t="s">
+        <v>552</v>
       </c>
       <c r="J57" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="L57" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M57" t="s">
         <v>646</v>
@@ -7742,16 +7745,16 @@
         <v>564</v>
       </c>
       <c r="P57" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="Q57" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="R57" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="S57" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="U57" t="s">
         <v>645</v>
@@ -7763,13 +7766,13 @@
         <v>644</v>
       </c>
       <c r="Z57" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AA57" t="s">
         <v>644</v>
       </c>
       <c r="AB57" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AC57" t="s">
         <v>644</v>
@@ -7784,48 +7787,48 @@
         <v>644</v>
       </c>
       <c r="AG57" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AH57" t="s">
         <v>644</v>
       </c>
       <c r="AI57" t="s">
-        <v>608</v>
+        <v>614</v>
       </c>
     </row>
     <row r="58" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>101</v>
+        <v>112</v>
       </c>
       <c r="B58" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="C58" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="D58" t="s">
-        <v>567</v>
+        <v>617</v>
       </c>
       <c r="E58">
-        <v>30</v>
+        <v>46</v>
       </c>
       <c r="F58" t="s">
         <v>301</v>
       </c>
       <c r="G58" t="s">
-        <v>357</v>
+        <v>364</v>
       </c>
       <c r="H58" t="s">
-        <v>441</v>
+        <v>452</v>
       </c>
       <c r="I58" t="s">
-        <v>535</v>
+        <v>544</v>
       </c>
       <c r="J58" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="L58" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M58" t="s">
         <v>646</v>
@@ -7837,16 +7840,19 @@
         <v>564</v>
       </c>
       <c r="P58" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
       <c r="Q58" t="s">
-        <v>643</v>
-      </c>
-      <c r="T58" t="s">
-        <v>111</v>
-      </c>
-      <c r="U58" t="b">
-        <v>0</v>
+        <v>650</v>
+      </c>
+      <c r="R58" t="s">
+        <v>65</v>
+      </c>
+      <c r="S58" t="s">
+        <v>74</v>
+      </c>
+      <c r="U58" t="s">
+        <v>645</v>
       </c>
       <c r="V58" t="b">
         <v>0</v>
@@ -7870,10 +7876,10 @@
         <v>644</v>
       </c>
       <c r="AE58" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AF58" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AG58" t="s">
         <v>644</v>
@@ -7882,42 +7888,42 @@
         <v>644</v>
       </c>
       <c r="AI58" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
     </row>
     <row r="59" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>111</v>
+        <v>127</v>
       </c>
       <c r="B59" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="C59" t="s">
-        <v>289</v>
+        <v>257</v>
       </c>
       <c r="D59" t="s">
-        <v>567</v>
+        <v>617</v>
       </c>
       <c r="E59">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="F59" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G59" t="s">
-        <v>363</v>
+        <v>325</v>
       </c>
       <c r="H59" t="s">
-        <v>451</v>
-      </c>
-      <c r="I59" t="s">
-        <v>543</v>
+        <v>467</v>
+      </c>
+      <c r="I59" s="3">
+        <v>39355</v>
       </c>
       <c r="J59" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="L59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M59" t="s">
         <v>655</v>
@@ -7932,16 +7938,19 @@
         <v>642</v>
       </c>
       <c r="Q59" t="s">
-        <v>647</v>
-      </c>
-      <c r="T59" t="s">
-        <v>101</v>
-      </c>
-      <c r="U59" t="b">
-        <v>0</v>
+        <v>651</v>
+      </c>
+      <c r="R59" t="s">
+        <v>65</v>
+      </c>
+      <c r="S59" t="s">
+        <v>74</v>
+      </c>
+      <c r="U59" t="s">
+        <v>645</v>
       </c>
       <c r="V59" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y59" t="s">
         <v>645</v>
@@ -7953,13 +7962,13 @@
         <v>644</v>
       </c>
       <c r="AB59" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AC59" t="s">
         <v>644</v>
       </c>
       <c r="AD59" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AE59" t="s">
         <v>644</v>
@@ -7974,45 +7983,45 @@
         <v>644</v>
       </c>
       <c r="AI59" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
     </row>
     <row r="60" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>118</v>
+        <v>61</v>
       </c>
       <c r="B60" t="s">
-        <v>218</v>
+        <v>161</v>
       </c>
       <c r="C60" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="D60" t="s">
-        <v>567</v>
+        <v>617</v>
       </c>
       <c r="E60">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F60" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G60" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="H60" t="s">
-        <v>458</v>
+        <v>401</v>
       </c>
       <c r="I60" s="3">
-        <v>37460</v>
+        <v>44157</v>
       </c>
       <c r="J60" t="s">
         <v>560</v>
       </c>
       <c r="L60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M60" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="N60" t="s">
         <v>564</v>
@@ -8021,16 +8030,16 @@
         <v>564</v>
       </c>
       <c r="P60" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="Q60" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="R60" t="s">
-        <v>101</v>
+        <v>65</v>
       </c>
       <c r="S60" t="s">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="U60" t="s">
         <v>645</v>
@@ -8045,19 +8054,19 @@
         <v>644</v>
       </c>
       <c r="AA60" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AB60" t="s">
         <v>644</v>
       </c>
       <c r="AC60" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AD60" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AE60" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AF60" t="s">
         <v>644</v>
@@ -8069,36 +8078,36 @@
         <v>644</v>
       </c>
       <c r="AI60" t="s">
-        <v>613</v>
+        <v>592</v>
       </c>
     </row>
     <row r="61" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>69</v>
+        <v>53</v>
       </c>
       <c r="B61" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="C61" t="s">
-        <v>264</v>
+        <v>634</v>
       </c>
       <c r="D61" t="s">
-        <v>567</v>
+        <v>639</v>
       </c>
       <c r="E61">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F61" t="s">
         <v>301</v>
       </c>
       <c r="G61" t="s">
-        <v>333</v>
+        <v>315</v>
       </c>
       <c r="H61" t="s">
-        <v>409</v>
+        <v>393</v>
       </c>
       <c r="I61" t="s">
-        <v>504</v>
+        <v>491</v>
       </c>
       <c r="J61" t="s">
         <v>561</v>
@@ -8116,19 +8125,16 @@
         <v>564</v>
       </c>
       <c r="P61" t="s">
-        <v>653</v>
+        <v>642</v>
       </c>
       <c r="Q61" t="s">
-        <v>650</v>
-      </c>
-      <c r="R61" t="s">
-        <v>101</v>
-      </c>
-      <c r="S61" t="s">
-        <v>111</v>
-      </c>
-      <c r="U61" t="s">
-        <v>645</v>
+        <v>647</v>
+      </c>
+      <c r="T61" t="s">
+        <v>97</v>
+      </c>
+      <c r="U61" t="b">
+        <v>0</v>
       </c>
       <c r="V61" t="b">
         <v>0</v>
@@ -8146,60 +8152,60 @@
         <v>644</v>
       </c>
       <c r="AC61" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AD61" t="s">
         <v>644</v>
       </c>
       <c r="AE61" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AF61" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AG61" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AH61" t="s">
         <v>644</v>
       </c>
       <c r="AI61" t="s">
-        <v>501</v>
+        <v>585</v>
       </c>
     </row>
     <row r="62" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>84</v>
+        <v>49</v>
       </c>
       <c r="B62" t="s">
-        <v>184</v>
+        <v>149</v>
       </c>
       <c r="C62" t="s">
-        <v>274</v>
+        <v>634</v>
       </c>
       <c r="D62" t="s">
-        <v>567</v>
+        <v>639</v>
       </c>
       <c r="E62">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="F62" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G62" t="s">
-        <v>345</v>
+        <v>315</v>
       </c>
       <c r="H62" t="s">
-        <v>424</v>
+        <v>389</v>
       </c>
       <c r="I62" t="s">
-        <v>518</v>
+        <v>487</v>
       </c>
       <c r="J62" t="s">
         <v>558</v>
       </c>
       <c r="L62" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M62" t="s">
         <v>655</v>
@@ -8211,16 +8217,16 @@
         <v>564</v>
       </c>
       <c r="P62" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
       <c r="Q62" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="R62" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="S62" t="s">
-        <v>111</v>
+        <v>53</v>
       </c>
       <c r="U62" t="s">
         <v>645</v>
@@ -8229,10 +8235,10 @@
         <v>0</v>
       </c>
       <c r="Y62" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="Z62" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AA62" t="s">
         <v>644</v>
@@ -8250,54 +8256,54 @@
         <v>644</v>
       </c>
       <c r="AF62" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AG62" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AH62" t="s">
         <v>644</v>
       </c>
       <c r="AI62" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
     </row>
     <row r="63" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>99</v>
+        <v>126</v>
       </c>
       <c r="B63" t="s">
-        <v>199</v>
+        <v>226</v>
       </c>
       <c r="C63" t="s">
-        <v>264</v>
+        <v>636</v>
       </c>
       <c r="D63" t="s">
-        <v>567</v>
+        <v>639</v>
       </c>
       <c r="E63">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="F63" t="s">
         <v>301</v>
       </c>
       <c r="G63" t="s">
-        <v>333</v>
+        <v>371</v>
       </c>
       <c r="H63" t="s">
-        <v>439</v>
+        <v>466</v>
       </c>
       <c r="I63" t="s">
-        <v>533</v>
+        <v>554</v>
       </c>
       <c r="J63" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="L63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M63" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="N63" t="s">
         <v>564</v>
@@ -8306,16 +8312,16 @@
         <v>564</v>
       </c>
       <c r="P63" t="s">
-        <v>653</v>
+        <v>642</v>
       </c>
       <c r="Q63" t="s">
         <v>650</v>
       </c>
       <c r="R63" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="S63" t="s">
-        <v>111</v>
+        <v>53</v>
       </c>
       <c r="U63" t="s">
         <v>645</v>
@@ -8327,7 +8333,7 @@
         <v>644</v>
       </c>
       <c r="Z63" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AA63" t="s">
         <v>644</v>
@@ -8336,13 +8342,13 @@
         <v>644</v>
       </c>
       <c r="AC63" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AD63" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AE63" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AF63" t="s">
         <v>644</v>
@@ -8351,48 +8357,48 @@
         <v>644</v>
       </c>
       <c r="AH63" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AI63" t="s">
-        <v>607</v>
+        <v>588</v>
       </c>
     </row>
     <row r="64" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="B64" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="C64" t="s">
-        <v>254</v>
+        <v>635</v>
       </c>
       <c r="D64" t="s">
-        <v>567</v>
+        <v>639</v>
       </c>
       <c r="E64">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="F64" t="s">
         <v>301</v>
       </c>
       <c r="G64" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="H64" t="s">
-        <v>398</v>
+        <v>386</v>
       </c>
       <c r="I64" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="J64" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="L64" t="b">
         <v>1</v>
       </c>
       <c r="M64" t="s">
-        <v>641</v>
+        <v>652</v>
       </c>
       <c r="N64" t="s">
         <v>564</v>
@@ -8401,16 +8407,16 @@
         <v>564</v>
       </c>
       <c r="P64" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
       <c r="Q64" t="s">
         <v>650</v>
       </c>
       <c r="R64" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="S64" t="s">
-        <v>111</v>
+        <v>53</v>
       </c>
       <c r="U64" t="s">
         <v>645</v>
@@ -8419,13 +8425,13 @@
         <v>0</v>
       </c>
       <c r="Y64" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="Z64" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AA64" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AB64" t="s">
         <v>644</v>
@@ -8449,36 +8455,36 @@
         <v>644</v>
       </c>
       <c r="AI64" t="s">
-        <v>589</v>
+        <v>579</v>
       </c>
     </row>
     <row r="65" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>73</v>
+        <v>98</v>
       </c>
       <c r="B65" t="s">
-        <v>173</v>
+        <v>198</v>
       </c>
       <c r="C65" t="s">
-        <v>624</v>
+        <v>631</v>
       </c>
       <c r="D65" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="E65">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="F65" t="s">
         <v>300</v>
       </c>
       <c r="G65" t="s">
-        <v>336</v>
+        <v>355</v>
       </c>
       <c r="H65" t="s">
-        <v>413</v>
+        <v>438</v>
       </c>
       <c r="I65" t="s">
-        <v>508</v>
+        <v>532</v>
       </c>
       <c r="J65" t="s">
         <v>562</v>
@@ -8487,7 +8493,7 @@
         <v>1</v>
       </c>
       <c r="M65" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="N65" t="s">
         <v>564</v>
@@ -8499,13 +8505,16 @@
         <v>642</v>
       </c>
       <c r="Q65" t="s">
-        <v>643</v>
-      </c>
-      <c r="T65" t="s">
-        <v>79</v>
-      </c>
-      <c r="U65" t="b">
-        <v>1</v>
+        <v>651</v>
+      </c>
+      <c r="R65" t="s">
+        <v>97</v>
+      </c>
+      <c r="S65" t="s">
+        <v>53</v>
+      </c>
+      <c r="U65" t="s">
+        <v>645</v>
       </c>
       <c r="V65" t="b">
         <v>0</v>
@@ -8520,13 +8529,13 @@
         <v>644</v>
       </c>
       <c r="AB65" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AC65" t="s">
         <v>644</v>
       </c>
       <c r="AD65" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AE65" t="s">
         <v>644</v>
@@ -8541,45 +8550,45 @@
         <v>644</v>
       </c>
       <c r="AI65" t="s">
-        <v>598</v>
+        <v>501</v>
       </c>
     </row>
     <row r="66" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>79</v>
+        <v>63</v>
       </c>
       <c r="B66" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="C66" t="s">
-        <v>622</v>
+        <v>259</v>
       </c>
       <c r="D66" t="s">
-        <v>637</v>
+        <v>619</v>
       </c>
       <c r="E66">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="F66" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G66" t="s">
-        <v>342</v>
+        <v>327</v>
       </c>
       <c r="H66" t="s">
-        <v>419</v>
-      </c>
-      <c r="I66" t="s">
-        <v>513</v>
+        <v>403</v>
+      </c>
+      <c r="I66" s="3">
+        <v>44363</v>
       </c>
       <c r="J66" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="L66" t="b">
         <v>1</v>
       </c>
       <c r="M66" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="N66" t="s">
         <v>564</v>
@@ -8591,28 +8600,28 @@
         <v>642</v>
       </c>
       <c r="Q66" t="s">
-        <v>647</v>
+        <v>643</v>
       </c>
       <c r="T66" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="U66" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V66" t="b">
         <v>0</v>
       </c>
       <c r="Y66" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="Z66" t="s">
         <v>644</v>
       </c>
       <c r="AA66" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AB66" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AC66" t="s">
         <v>644</v>
@@ -8627,27 +8636,27 @@
         <v>644</v>
       </c>
       <c r="AG66" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AH66" t="s">
         <v>644</v>
       </c>
       <c r="AI66" t="s">
-        <v>585</v>
+        <v>591</v>
       </c>
     </row>
     <row r="67" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="B67" t="s">
-        <v>195</v>
+        <v>141</v>
       </c>
       <c r="C67" t="s">
-        <v>622</v>
+        <v>241</v>
       </c>
       <c r="D67" t="s">
-        <v>637</v>
+        <v>619</v>
       </c>
       <c r="E67">
         <v>18</v>
@@ -8656,22 +8665,22 @@
         <v>300</v>
       </c>
       <c r="G67" t="s">
-        <v>342</v>
+        <v>308</v>
       </c>
       <c r="H67" t="s">
-        <v>435</v>
+        <v>381</v>
       </c>
       <c r="I67" t="s">
-        <v>529</v>
+        <v>480</v>
       </c>
       <c r="J67" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="L67" t="b">
         <v>1</v>
       </c>
       <c r="M67" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="N67" t="s">
         <v>564</v>
@@ -8683,16 +8692,13 @@
         <v>642</v>
       </c>
       <c r="Q67" t="s">
-        <v>651</v>
-      </c>
-      <c r="R67" t="s">
-        <v>73</v>
-      </c>
-      <c r="S67" t="s">
-        <v>79</v>
-      </c>
-      <c r="U67" t="s">
-        <v>645</v>
+        <v>647</v>
+      </c>
+      <c r="T67" t="s">
+        <v>63</v>
+      </c>
+      <c r="U67" t="b">
+        <v>1</v>
       </c>
       <c r="V67" t="b">
         <v>0</v>
@@ -8704,10 +8710,10 @@
         <v>644</v>
       </c>
       <c r="AA67" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AB67" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AC67" t="s">
         <v>644</v>
@@ -8733,34 +8739,34 @@
     </row>
     <row r="68" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B68" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C68" t="s">
-        <v>625</v>
+        <v>263</v>
       </c>
       <c r="D68" t="s">
-        <v>637</v>
+        <v>619</v>
       </c>
       <c r="E68">
-        <v>19</v>
+        <v>60</v>
       </c>
       <c r="F68" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G68" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="H68" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="I68" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="J68" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="L68" t="b">
         <v>1</v>
@@ -8775,16 +8781,16 @@
         <v>564</v>
       </c>
       <c r="P68" t="s">
-        <v>653</v>
+        <v>642</v>
       </c>
       <c r="Q68" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="R68" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="S68" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="U68" t="s">
         <v>645</v>
@@ -8793,13 +8799,13 @@
         <v>0</v>
       </c>
       <c r="Y68" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="Z68" t="s">
         <v>645</v>
       </c>
       <c r="AA68" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AB68" t="s">
         <v>644</v>
@@ -8814,54 +8820,54 @@
         <v>644</v>
       </c>
       <c r="AF68" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AG68" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AH68" t="s">
         <v>644</v>
       </c>
       <c r="AI68" t="s">
-        <v>580</v>
+        <v>597</v>
       </c>
     </row>
     <row r="69" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="B69" t="s">
-        <v>167</v>
+        <v>200</v>
       </c>
       <c r="C69" t="s">
-        <v>623</v>
+        <v>282</v>
       </c>
       <c r="D69" t="s">
-        <v>637</v>
+        <v>619</v>
       </c>
       <c r="E69">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F69" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G69" t="s">
-        <v>331</v>
+        <v>356</v>
       </c>
       <c r="H69" t="s">
-        <v>407</v>
+        <v>440</v>
       </c>
       <c r="I69" t="s">
-        <v>502</v>
+        <v>534</v>
       </c>
       <c r="J69" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="L69" t="b">
         <v>1</v>
       </c>
       <c r="M69" t="s">
-        <v>646</v>
+        <v>655</v>
       </c>
       <c r="N69" t="s">
         <v>564</v>
@@ -8870,16 +8876,16 @@
         <v>564</v>
       </c>
       <c r="P69" t="s">
-        <v>653</v>
+        <v>649</v>
       </c>
       <c r="Q69" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="R69" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="S69" t="s">
-        <v>79</v>
+        <v>41</v>
       </c>
       <c r="U69" t="s">
         <v>645</v>
@@ -8900,16 +8906,16 @@
         <v>644</v>
       </c>
       <c r="AC69" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AD69" t="s">
         <v>644</v>
       </c>
       <c r="AE69" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AF69" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AG69" t="s">
         <v>644</v>
@@ -8918,72 +8924,75 @@
         <v>644</v>
       </c>
       <c r="AI69" t="s">
-        <v>596</v>
+        <v>608</v>
       </c>
     </row>
     <row r="70" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B70" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C70" t="s">
-        <v>252</v>
+        <v>269</v>
       </c>
       <c r="D70" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E70">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F70" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G70" t="s">
-        <v>320</v>
+        <v>339</v>
       </c>
       <c r="H70" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="I70" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="J70" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="L70" t="b">
+        <v>1</v>
+      </c>
+      <c r="M70" t="s">
+        <v>646</v>
+      </c>
+      <c r="N70" t="s">
+        <v>564</v>
+      </c>
+      <c r="O70" t="s">
+        <v>564</v>
+      </c>
+      <c r="P70" t="s">
+        <v>653</v>
+      </c>
+      <c r="Q70" t="s">
+        <v>650</v>
+      </c>
+      <c r="R70" t="s">
+        <v>63</v>
+      </c>
+      <c r="S70" t="s">
+        <v>41</v>
+      </c>
+      <c r="U70" t="s">
+        <v>645</v>
+      </c>
+      <c r="V70" t="b">
         <v>0</v>
       </c>
-      <c r="M70" t="s">
-        <v>641</v>
-      </c>
-      <c r="N70" t="s">
-        <v>564</v>
-      </c>
-      <c r="O70" t="s">
-        <v>564</v>
-      </c>
-      <c r="P70" t="s">
-        <v>642</v>
-      </c>
-      <c r="Q70" t="s">
-        <v>643</v>
-      </c>
-      <c r="T70" t="s">
-        <v>82</v>
-      </c>
-      <c r="U70" t="b">
-        <v>1</v>
-      </c>
-      <c r="V70" t="b">
-        <v>1</v>
-      </c>
       <c r="Y70" t="s">
         <v>644</v>
       </c>
       <c r="Z70" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AA70" t="s">
         <v>644</v>
@@ -8995,7 +9004,7 @@
         <v>644</v>
       </c>
       <c r="AD70" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AE70" t="s">
         <v>644</v>
@@ -9004,45 +9013,45 @@
         <v>644</v>
       </c>
       <c r="AG70" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AH70" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AI70" t="s">
-        <v>595</v>
+        <v>600</v>
       </c>
     </row>
     <row r="71" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="B71" t="s">
-        <v>182</v>
+        <v>220</v>
       </c>
       <c r="C71" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="D71" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E71">
-        <v>18</v>
+        <v>49</v>
       </c>
       <c r="F71" t="s">
         <v>301</v>
       </c>
       <c r="G71" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="H71" t="s">
-        <v>422</v>
+        <v>460</v>
       </c>
       <c r="I71" t="s">
-        <v>516</v>
+        <v>549</v>
       </c>
       <c r="J71" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="L71" t="b">
         <v>1</v>
@@ -9057,16 +9066,19 @@
         <v>564</v>
       </c>
       <c r="P71" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
       <c r="Q71" t="s">
-        <v>647</v>
-      </c>
-      <c r="T71" t="s">
-        <v>83</v>
-      </c>
-      <c r="U71" t="b">
-        <v>0</v>
+        <v>650</v>
+      </c>
+      <c r="R71" t="s">
+        <v>63</v>
+      </c>
+      <c r="S71" t="s">
+        <v>41</v>
+      </c>
+      <c r="U71" t="s">
+        <v>645</v>
       </c>
       <c r="V71" t="b">
         <v>0</v>
@@ -9084,7 +9096,7 @@
         <v>644</v>
       </c>
       <c r="AC71" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AD71" t="s">
         <v>644</v>
@@ -9096,51 +9108,51 @@
         <v>644</v>
       </c>
       <c r="AG71" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AH71" t="s">
-        <v>644</v>
-      </c>
-      <c r="AI71" t="s">
-        <v>575</v>
+        <v>645</v>
+      </c>
+      <c r="AI71" s="4">
+        <v>27977</v>
       </c>
     </row>
     <row r="72" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>119</v>
+        <v>80</v>
       </c>
       <c r="B72" t="s">
-        <v>219</v>
+        <v>180</v>
       </c>
       <c r="C72" t="s">
-        <v>293</v>
+        <v>272</v>
       </c>
       <c r="D72" t="s">
-        <v>621</v>
+        <v>566</v>
       </c>
       <c r="E72">
-        <v>15</v>
+        <v>52</v>
       </c>
       <c r="F72" t="s">
         <v>301</v>
       </c>
       <c r="G72" t="s">
-        <v>367</v>
+        <v>343</v>
       </c>
       <c r="H72" t="s">
-        <v>459</v>
+        <v>420</v>
       </c>
       <c r="I72" t="s">
-        <v>548</v>
+        <v>514</v>
       </c>
       <c r="J72" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="L72" t="b">
         <v>1</v>
       </c>
       <c r="M72" t="s">
-        <v>655</v>
+        <v>646</v>
       </c>
       <c r="N72" t="s">
         <v>564</v>
@@ -9152,19 +9164,16 @@
         <v>642</v>
       </c>
       <c r="Q72" t="s">
-        <v>650</v>
-      </c>
-      <c r="R72" t="s">
-        <v>83</v>
-      </c>
-      <c r="S72" t="s">
-        <v>82</v>
-      </c>
-      <c r="U72" t="s">
-        <v>645</v>
+        <v>643</v>
+      </c>
+      <c r="T72" t="s">
+        <v>72</v>
+      </c>
+      <c r="U72" t="b">
+        <v>1</v>
       </c>
       <c r="V72" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y72" t="s">
         <v>644</v>
@@ -9176,7 +9185,7 @@
         <v>644</v>
       </c>
       <c r="AB72" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AC72" t="s">
         <v>644</v>
@@ -9188,7 +9197,7 @@
         <v>644</v>
       </c>
       <c r="AF72" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AG72" t="s">
         <v>644</v>
@@ -9197,45 +9206,45 @@
         <v>644</v>
       </c>
       <c r="AI72" t="s">
-        <v>587</v>
+        <v>593</v>
       </c>
     </row>
     <row r="73" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="C73" t="s">
-        <v>270</v>
+        <v>236</v>
       </c>
       <c r="D73" t="s">
-        <v>621</v>
+        <v>566</v>
       </c>
       <c r="E73">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="F73" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G73" t="s">
-        <v>340</v>
+        <v>303</v>
       </c>
       <c r="H73" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="I73" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="J73" t="s">
         <v>559</v>
       </c>
       <c r="L73" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M73" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="N73" t="s">
         <v>564</v>
@@ -9244,19 +9253,16 @@
         <v>564</v>
       </c>
       <c r="P73" t="s">
-        <v>653</v>
+        <v>642</v>
       </c>
       <c r="Q73" t="s">
-        <v>651</v>
-      </c>
-      <c r="R73" t="s">
-        <v>83</v>
-      </c>
-      <c r="S73" t="s">
-        <v>82</v>
-      </c>
-      <c r="U73" t="s">
-        <v>645</v>
+        <v>647</v>
+      </c>
+      <c r="T73" t="s">
+        <v>80</v>
+      </c>
+      <c r="U73" t="b">
+        <v>1</v>
       </c>
       <c r="V73" t="b">
         <v>0</v>
@@ -9271,10 +9277,10 @@
         <v>644</v>
       </c>
       <c r="AB73" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AC73" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AD73" t="s">
         <v>644</v>
@@ -9292,45 +9298,45 @@
         <v>644</v>
       </c>
       <c r="AI73" t="s">
-        <v>601</v>
+        <v>576</v>
       </c>
     </row>
     <row r="74" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>56</v>
+        <v>128</v>
       </c>
       <c r="B74" t="s">
-        <v>156</v>
+        <v>228</v>
       </c>
       <c r="C74" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D74" t="s">
-        <v>621</v>
+        <v>566</v>
       </c>
       <c r="E74">
-        <v>15</v>
+        <v>34</v>
       </c>
       <c r="F74" t="s">
         <v>300</v>
       </c>
       <c r="G74" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="H74" t="s">
-        <v>396</v>
-      </c>
-      <c r="I74" t="s">
-        <v>493</v>
+        <v>468</v>
+      </c>
+      <c r="I74" s="3">
+        <v>43445</v>
       </c>
       <c r="J74" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="L74" t="b">
         <v>1</v>
       </c>
       <c r="M74" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="N74" t="s">
         <v>564</v>
@@ -9345,16 +9351,16 @@
         <v>651</v>
       </c>
       <c r="R74" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="S74" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="U74" t="s">
         <v>645</v>
       </c>
       <c r="V74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y74" t="s">
         <v>644</v>
@@ -9363,16 +9369,16 @@
         <v>645</v>
       </c>
       <c r="AA74" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AB74" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AC74" t="s">
         <v>644</v>
       </c>
       <c r="AD74" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AE74" t="s">
         <v>644</v>
@@ -9381,48 +9387,48 @@
         <v>644</v>
       </c>
       <c r="AG74" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AH74" t="s">
         <v>644</v>
       </c>
       <c r="AI74" t="s">
-        <v>587</v>
+        <v>605</v>
       </c>
     </row>
     <row r="75" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="B75" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="C75" t="s">
-        <v>253</v>
+        <v>236</v>
       </c>
       <c r="D75" t="s">
-        <v>621</v>
+        <v>566</v>
       </c>
       <c r="E75">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F75" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G75" t="s">
-        <v>321</v>
+        <v>303</v>
       </c>
       <c r="H75" t="s">
-        <v>397</v>
+        <v>376</v>
       </c>
       <c r="I75" t="s">
-        <v>494</v>
+        <v>476</v>
       </c>
       <c r="J75" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="L75" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M75" t="s">
         <v>641</v>
@@ -9434,16 +9440,16 @@
         <v>564</v>
       </c>
       <c r="P75" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
       <c r="Q75" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="R75" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="S75" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="U75" t="s">
         <v>645</v>
@@ -9452,7 +9458,7 @@
         <v>0</v>
       </c>
       <c r="Y75" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="Z75" t="s">
         <v>644</v>
@@ -9464,7 +9470,7 @@
         <v>644</v>
       </c>
       <c r="AC75" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AD75" t="s">
         <v>644</v>
@@ -9482,45 +9488,45 @@
         <v>644</v>
       </c>
       <c r="AI75" t="s">
-        <v>588</v>
+        <v>570</v>
       </c>
     </row>
     <row r="76" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>54</v>
+        <v>106</v>
       </c>
       <c r="B76" t="s">
-        <v>154</v>
+        <v>206</v>
       </c>
       <c r="C76" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="D76" t="s">
-        <v>621</v>
+        <v>566</v>
       </c>
       <c r="E76">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="F76" t="s">
         <v>300</v>
       </c>
       <c r="G76" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
       <c r="H76" t="s">
-        <v>394</v>
+        <v>446</v>
       </c>
       <c r="I76" t="s">
-        <v>492</v>
+        <v>539</v>
       </c>
       <c r="J76" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="L76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M76" t="s">
-        <v>641</v>
+        <v>648</v>
       </c>
       <c r="N76" t="s">
         <v>564</v>
@@ -9535,10 +9541,10 @@
         <v>651</v>
       </c>
       <c r="R76" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="S76" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="U76" t="s">
         <v>645</v>
@@ -9547,7 +9553,7 @@
         <v>0</v>
       </c>
       <c r="Y76" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="Z76" t="s">
         <v>644</v>
@@ -9556,13 +9562,13 @@
         <v>644</v>
       </c>
       <c r="AB76" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AC76" t="s">
         <v>644</v>
       </c>
       <c r="AD76" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AE76" t="s">
         <v>644</v>
@@ -9577,45 +9583,45 @@
         <v>644</v>
       </c>
       <c r="AI76" t="s">
-        <v>585</v>
+        <v>610</v>
       </c>
     </row>
     <row r="77" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="B77" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="C77" t="s">
-        <v>270</v>
+        <v>288</v>
       </c>
       <c r="D77" t="s">
-        <v>621</v>
+        <v>566</v>
       </c>
       <c r="E77">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="F77" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G77" t="s">
-        <v>340</v>
+        <v>362</v>
       </c>
       <c r="H77" t="s">
-        <v>443</v>
+        <v>449</v>
       </c>
       <c r="I77" t="s">
-        <v>536</v>
+        <v>542</v>
       </c>
       <c r="J77" t="s">
-        <v>558</v>
+        <v>563</v>
       </c>
       <c r="L77" t="b">
         <v>1</v>
       </c>
       <c r="M77" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="N77" t="s">
         <v>564</v>
@@ -9627,13 +9633,13 @@
         <v>653</v>
       </c>
       <c r="Q77" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="R77" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="S77" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="U77" t="s">
         <v>645</v>
@@ -9642,10 +9648,10 @@
         <v>0</v>
       </c>
       <c r="Y77" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="Z77" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AA77" t="s">
         <v>645</v>
@@ -9657,7 +9663,7 @@
         <v>644</v>
       </c>
       <c r="AD77" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AE77" t="s">
         <v>644</v>
@@ -9666,51 +9672,51 @@
         <v>644</v>
       </c>
       <c r="AG77" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AH77" t="s">
         <v>644</v>
       </c>
       <c r="AI77" t="s">
-        <v>603</v>
+        <v>585</v>
       </c>
     </row>
     <row r="78" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="B78" t="s">
-        <v>138</v>
+        <v>169</v>
       </c>
       <c r="C78" t="s">
-        <v>238</v>
+        <v>264</v>
       </c>
       <c r="D78" t="s">
-        <v>621</v>
+        <v>567</v>
       </c>
       <c r="E78">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="F78" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G78" t="s">
-        <v>305</v>
+        <v>333</v>
       </c>
       <c r="H78" t="s">
-        <v>378</v>
+        <v>409</v>
       </c>
       <c r="I78" t="s">
-        <v>477</v>
+        <v>504</v>
       </c>
       <c r="J78" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="L78" t="b">
         <v>1</v>
       </c>
       <c r="M78" t="s">
-        <v>641</v>
+        <v>654</v>
       </c>
       <c r="N78" t="s">
         <v>564</v>
@@ -9719,16 +9725,16 @@
         <v>564</v>
       </c>
       <c r="P78" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="Q78" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="R78" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="S78" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="U78" t="s">
         <v>645</v>
@@ -9746,7 +9752,7 @@
         <v>644</v>
       </c>
       <c r="AB78" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AC78" t="s">
         <v>644</v>
@@ -9755,10 +9761,10 @@
         <v>644</v>
       </c>
       <c r="AE78" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AF78" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AG78" t="s">
         <v>645</v>
@@ -9767,72 +9773,72 @@
         <v>644</v>
       </c>
       <c r="AI78" t="s">
-        <v>572</v>
+        <v>501</v>
       </c>
     </row>
     <row r="79" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="B79" t="s">
-        <v>187</v>
+        <v>158</v>
       </c>
       <c r="C79" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="D79" t="s">
-        <v>621</v>
+        <v>567</v>
       </c>
       <c r="E79">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="F79" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G79" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H79" t="s">
-        <v>427</v>
+        <v>398</v>
       </c>
       <c r="I79" t="s">
-        <v>521</v>
+        <v>495</v>
       </c>
       <c r="J79" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="L79" t="b">
+        <v>1</v>
+      </c>
+      <c r="M79" t="s">
+        <v>641</v>
+      </c>
+      <c r="N79" t="s">
+        <v>564</v>
+      </c>
+      <c r="O79" t="s">
+        <v>564</v>
+      </c>
+      <c r="P79" t="s">
+        <v>642</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>650</v>
+      </c>
+      <c r="R79" t="s">
+        <v>101</v>
+      </c>
+      <c r="S79" t="s">
+        <v>111</v>
+      </c>
+      <c r="U79" t="s">
+        <v>645</v>
+      </c>
+      <c r="V79" t="b">
         <v>0</v>
       </c>
-      <c r="M79" t="s">
-        <v>648</v>
-      </c>
-      <c r="N79" t="s">
-        <v>564</v>
-      </c>
-      <c r="O79" t="s">
-        <v>564</v>
-      </c>
-      <c r="P79" t="s">
-        <v>653</v>
-      </c>
-      <c r="Q79" t="s">
-        <v>651</v>
-      </c>
-      <c r="R79" t="s">
-        <v>83</v>
-      </c>
-      <c r="S79" t="s">
-        <v>82</v>
-      </c>
-      <c r="U79" t="s">
-        <v>645</v>
-      </c>
-      <c r="V79" t="b">
-        <v>1</v>
-      </c>
       <c r="Y79" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="Z79" t="s">
         <v>644</v>
@@ -9847,7 +9853,7 @@
         <v>644</v>
       </c>
       <c r="AD79" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AE79" t="s">
         <v>644</v>
@@ -9862,45 +9868,45 @@
         <v>644</v>
       </c>
       <c r="AI79" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
     </row>
     <row r="80" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="B80" t="s">
-        <v>191</v>
+        <v>173</v>
       </c>
       <c r="C80" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D80" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="E80">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F80" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G80" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="H80" t="s">
-        <v>431</v>
+        <v>413</v>
       </c>
       <c r="I80" t="s">
-        <v>525</v>
+        <v>508</v>
       </c>
       <c r="J80" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="L80" t="b">
         <v>1</v>
       </c>
       <c r="M80" t="s">
-        <v>646</v>
+        <v>655</v>
       </c>
       <c r="N80" t="s">
         <v>564</v>
@@ -9915,7 +9921,7 @@
         <v>643</v>
       </c>
       <c r="T80" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="U80" t="b">
         <v>1</v>
@@ -9924,7 +9930,7 @@
         <v>0</v>
       </c>
       <c r="Y80" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="Z80" t="s">
         <v>644</v>
@@ -9933,7 +9939,7 @@
         <v>644</v>
       </c>
       <c r="AB80" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AC80" t="s">
         <v>644</v>
@@ -9948,51 +9954,51 @@
         <v>644</v>
       </c>
       <c r="AG80" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AH80" t="s">
         <v>644</v>
       </c>
       <c r="AI80" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="81" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>52</v>
+        <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>152</v>
+        <v>179</v>
       </c>
       <c r="C81" t="s">
-        <v>627</v>
+        <v>622</v>
       </c>
       <c r="D81" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="E81">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="F81" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G81" t="s">
-        <v>317</v>
+        <v>342</v>
       </c>
       <c r="H81" t="s">
-        <v>392</v>
+        <v>419</v>
       </c>
       <c r="I81" t="s">
-        <v>490</v>
+        <v>513</v>
       </c>
       <c r="J81" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="L81" t="b">
         <v>1</v>
       </c>
       <c r="M81" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="N81" t="s">
         <v>564</v>
@@ -10007,16 +10013,16 @@
         <v>647</v>
       </c>
       <c r="T81" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="U81" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V81" t="b">
         <v>0</v>
       </c>
       <c r="Y81" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="Z81" t="s">
         <v>644</v>
@@ -10025,7 +10031,7 @@
         <v>644</v>
       </c>
       <c r="AB81" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AC81" t="s">
         <v>644</v>
@@ -10046,45 +10052,45 @@
         <v>644</v>
       </c>
       <c r="AI81" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="82" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="B82" t="s">
-        <v>155</v>
+        <v>195</v>
       </c>
       <c r="C82" t="s">
-        <v>251</v>
+        <v>622</v>
       </c>
       <c r="D82" t="s">
-        <v>618</v>
+        <v>637</v>
       </c>
       <c r="E82">
-        <v>33</v>
+        <v>18</v>
       </c>
       <c r="F82" t="s">
         <v>300</v>
       </c>
       <c r="G82" t="s">
-        <v>319</v>
+        <v>342</v>
       </c>
       <c r="H82" t="s">
-        <v>395</v>
-      </c>
-      <c r="I82" s="3">
-        <v>43759</v>
+        <v>435</v>
+      </c>
+      <c r="I82" t="s">
+        <v>529</v>
       </c>
       <c r="J82" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="L82" t="b">
         <v>1</v>
       </c>
       <c r="M82" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
       <c r="N82" t="s">
         <v>564</v>
@@ -10096,25 +10102,28 @@
         <v>642</v>
       </c>
       <c r="Q82" t="s">
-        <v>643</v>
-      </c>
-      <c r="T82" t="s">
-        <v>104</v>
-      </c>
-      <c r="U82" t="b">
-        <v>1</v>
+        <v>651</v>
+      </c>
+      <c r="R82" t="s">
+        <v>73</v>
+      </c>
+      <c r="S82" t="s">
+        <v>79</v>
+      </c>
+      <c r="U82" t="s">
+        <v>645</v>
       </c>
       <c r="V82" t="b">
         <v>0</v>
       </c>
       <c r="Y82" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="Z82" t="s">
         <v>644</v>
       </c>
       <c r="AA82" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AB82" t="s">
         <v>645</v>
@@ -10123,7 +10132,7 @@
         <v>644</v>
       </c>
       <c r="AD82" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AE82" t="s">
         <v>644</v>
@@ -10138,36 +10147,36 @@
         <v>644</v>
       </c>
       <c r="AI82" t="s">
-        <v>586</v>
+        <v>575</v>
       </c>
     </row>
     <row r="83" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="B83" t="s">
-        <v>204</v>
+        <v>170</v>
       </c>
       <c r="C83" t="s">
-        <v>284</v>
+        <v>625</v>
       </c>
       <c r="D83" t="s">
-        <v>618</v>
+        <v>637</v>
       </c>
       <c r="E83">
-        <v>69</v>
+        <v>19</v>
       </c>
       <c r="F83" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G83" t="s">
-        <v>358</v>
+        <v>334</v>
       </c>
       <c r="H83" t="s">
-        <v>444</v>
+        <v>410</v>
       </c>
       <c r="I83" t="s">
-        <v>537</v>
+        <v>505</v>
       </c>
       <c r="J83" t="s">
         <v>558</v>
@@ -10176,7 +10185,7 @@
         <v>1</v>
       </c>
       <c r="M83" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="N83" t="s">
         <v>564</v>
@@ -10185,16 +10194,19 @@
         <v>564</v>
       </c>
       <c r="P83" t="s">
-        <v>642</v>
+        <v>653</v>
       </c>
       <c r="Q83" t="s">
-        <v>647</v>
-      </c>
-      <c r="T83" t="s">
-        <v>55</v>
-      </c>
-      <c r="U83" t="b">
-        <v>0</v>
+        <v>651</v>
+      </c>
+      <c r="R83" t="s">
+        <v>73</v>
+      </c>
+      <c r="S83" t="s">
+        <v>79</v>
+      </c>
+      <c r="U83" t="s">
+        <v>645</v>
       </c>
       <c r="V83" t="b">
         <v>0</v>
@@ -10203,10 +10215,10 @@
         <v>645</v>
       </c>
       <c r="Z83" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AA83" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AB83" t="s">
         <v>644</v>
@@ -10218,51 +10230,51 @@
         <v>644</v>
       </c>
       <c r="AE83" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AF83" t="s">
         <v>644</v>
       </c>
       <c r="AG83" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AH83" t="s">
         <v>644</v>
       </c>
       <c r="AI83" t="s">
-        <v>609</v>
+        <v>580</v>
       </c>
     </row>
     <row r="84" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>86</v>
+        <v>67</v>
       </c>
       <c r="B84" t="s">
-        <v>186</v>
+        <v>167</v>
       </c>
       <c r="C84" t="s">
-        <v>276</v>
+        <v>623</v>
       </c>
       <c r="D84" t="s">
-        <v>618</v>
+        <v>637</v>
       </c>
       <c r="E84">
         <v>47</v>
       </c>
       <c r="F84" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G84" t="s">
-        <v>347</v>
+        <v>331</v>
       </c>
       <c r="H84" t="s">
-        <v>426</v>
+        <v>407</v>
       </c>
       <c r="I84" t="s">
-        <v>520</v>
+        <v>502</v>
       </c>
       <c r="J84" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="L84" t="b">
         <v>1</v>
@@ -10277,16 +10289,16 @@
         <v>564</v>
       </c>
       <c r="P84" t="s">
-        <v>642</v>
+        <v>653</v>
       </c>
       <c r="Q84" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="R84" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="S84" t="s">
-        <v>104</v>
+        <v>79</v>
       </c>
       <c r="U84" t="s">
         <v>645</v>
@@ -10301,7 +10313,7 @@
         <v>644</v>
       </c>
       <c r="AA84" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AB84" t="s">
         <v>644</v>
@@ -10313,7 +10325,7 @@
         <v>644</v>
       </c>
       <c r="AE84" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AF84" t="s">
         <v>644</v>
@@ -10330,61 +10342,58 @@
     </row>
     <row r="85" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="B85" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="C85" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="D85" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="E85">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="F85" t="s">
         <v>301</v>
       </c>
       <c r="G85" t="s">
-        <v>338</v>
+        <v>344</v>
       </c>
       <c r="H85" t="s">
-        <v>415</v>
+        <v>422</v>
       </c>
       <c r="I85" t="s">
-        <v>510</v>
+        <v>516</v>
       </c>
       <c r="J85" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="L85" t="b">
+        <v>1</v>
+      </c>
+      <c r="M85" t="s">
+        <v>648</v>
+      </c>
+      <c r="N85" t="s">
+        <v>564</v>
+      </c>
+      <c r="O85" t="s">
+        <v>564</v>
+      </c>
+      <c r="P85" t="s">
+        <v>642</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>647</v>
+      </c>
+      <c r="T85" t="s">
+        <v>83</v>
+      </c>
+      <c r="U85" t="b">
         <v>0</v>
-      </c>
-      <c r="M85" t="s">
-        <v>646</v>
-      </c>
-      <c r="N85" t="s">
-        <v>564</v>
-      </c>
-      <c r="O85" t="s">
-        <v>564</v>
-      </c>
-      <c r="P85" t="s">
-        <v>649</v>
-      </c>
-      <c r="Q85" t="s">
-        <v>650</v>
-      </c>
-      <c r="R85" t="s">
-        <v>55</v>
-      </c>
-      <c r="S85" t="s">
-        <v>104</v>
-      </c>
-      <c r="U85" t="s">
-        <v>645</v>
       </c>
       <c r="V85" t="b">
         <v>0</v>
@@ -10414,51 +10423,51 @@
         <v>644</v>
       </c>
       <c r="AG85" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AH85" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AI85" t="s">
-        <v>599</v>
+        <v>575</v>
       </c>
     </row>
     <row r="86" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="B86" t="s">
-        <v>234</v>
+        <v>219</v>
       </c>
       <c r="C86" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="D86" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="E86">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="F86" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G86" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="H86" t="s">
-        <v>474</v>
-      </c>
-      <c r="I86" s="3">
-        <v>45226</v>
+        <v>459</v>
+      </c>
+      <c r="I86" t="s">
+        <v>548</v>
       </c>
       <c r="J86" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="L86" t="b">
         <v>1</v>
       </c>
       <c r="M86" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="N86" t="s">
         <v>564</v>
@@ -10470,43 +10479,43 @@
         <v>642</v>
       </c>
       <c r="Q86" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="R86" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="S86" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="U86" t="s">
         <v>645</v>
       </c>
       <c r="V86" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y86" t="s">
         <v>644</v>
       </c>
       <c r="Z86" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AA86" t="s">
         <v>644</v>
       </c>
       <c r="AB86" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AC86" t="s">
         <v>644</v>
       </c>
       <c r="AD86" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AE86" t="s">
         <v>644</v>
       </c>
       <c r="AF86" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AG86" t="s">
         <v>644</v>
@@ -10515,45 +10524,45 @@
         <v>644</v>
       </c>
       <c r="AI86" t="s">
-        <v>610</v>
+        <v>587</v>
       </c>
     </row>
     <row r="87" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B87" t="s">
-        <v>151</v>
+        <v>156</v>
       </c>
       <c r="C87" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D87" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
       <c r="E87">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="F87" t="s">
         <v>300</v>
       </c>
       <c r="G87" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="H87" t="s">
-        <v>391</v>
+        <v>396</v>
       </c>
       <c r="I87" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="J87" t="s">
         <v>558</v>
       </c>
       <c r="L87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M87" t="s">
-        <v>648</v>
+        <v>655</v>
       </c>
       <c r="N87" t="s">
         <v>564</v>
@@ -10562,46 +10571,46 @@
         <v>564</v>
       </c>
       <c r="P87" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="Q87" t="s">
         <v>651</v>
       </c>
       <c r="R87" t="s">
-        <v>55</v>
+        <v>83</v>
       </c>
       <c r="S87" t="s">
-        <v>104</v>
+        <v>82</v>
       </c>
       <c r="U87" t="s">
         <v>645</v>
       </c>
       <c r="V87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y87" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="Z87" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AA87" t="s">
         <v>644</v>
       </c>
       <c r="AB87" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AC87" t="s">
         <v>644</v>
       </c>
       <c r="AD87" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AE87" t="s">
         <v>644</v>
       </c>
       <c r="AF87" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AG87" t="s">
         <v>644</v>
@@ -10610,45 +10619,45 @@
         <v>644</v>
       </c>
       <c r="AI87" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
     </row>
     <row r="88" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>66</v>
+        <v>103</v>
       </c>
       <c r="B88" t="s">
-        <v>166</v>
+        <v>203</v>
       </c>
       <c r="C88" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="D88" t="s">
-        <v>568</v>
+        <v>621</v>
       </c>
       <c r="E88">
-        <v>10</v>
+        <v>57</v>
       </c>
       <c r="F88" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G88" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="H88" t="s">
-        <v>406</v>
+        <v>443</v>
       </c>
       <c r="I88" t="s">
-        <v>501</v>
+        <v>536</v>
       </c>
       <c r="J88" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="L88" t="b">
         <v>1</v>
       </c>
       <c r="M88" t="s">
-        <v>646</v>
+        <v>648</v>
       </c>
       <c r="N88" t="s">
         <v>564</v>
@@ -10657,20 +10666,23 @@
         <v>564</v>
       </c>
       <c r="P88" t="s">
-        <v>642</v>
+        <v>653</v>
       </c>
       <c r="Q88" t="s">
-        <v>643</v>
-      </c>
-      <c r="T88" t="s">
-        <v>88</v>
-      </c>
-      <c r="U88" t="b">
+        <v>651</v>
+      </c>
+      <c r="R88" t="s">
+        <v>83</v>
+      </c>
+      <c r="S88" t="s">
+        <v>82</v>
+      </c>
+      <c r="U88" t="s">
+        <v>645</v>
+      </c>
+      <c r="V88" t="b">
         <v>0</v>
       </c>
-      <c r="V88" t="b">
-        <v>1</v>
-      </c>
       <c r="Y88" t="s">
         <v>645</v>
       </c>
@@ -10687,7 +10699,7 @@
         <v>644</v>
       </c>
       <c r="AD88" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AE88" t="s">
         <v>644</v>
@@ -10696,51 +10708,51 @@
         <v>644</v>
       </c>
       <c r="AG88" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AH88" t="s">
         <v>644</v>
       </c>
       <c r="AI88" t="s">
-        <v>595</v>
+        <v>603</v>
       </c>
     </row>
     <row r="89" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>88</v>
+        <v>38</v>
       </c>
       <c r="B89" t="s">
-        <v>188</v>
+        <v>138</v>
       </c>
       <c r="C89" t="s">
-        <v>277</v>
+        <v>238</v>
       </c>
       <c r="D89" t="s">
-        <v>568</v>
+        <v>621</v>
       </c>
       <c r="E89">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="F89" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G89" t="s">
-        <v>348</v>
+        <v>305</v>
       </c>
       <c r="H89" t="s">
-        <v>428</v>
+        <v>378</v>
       </c>
       <c r="I89" t="s">
-        <v>522</v>
+        <v>477</v>
       </c>
       <c r="J89" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="L89" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M89" t="s">
-        <v>652</v>
+        <v>641</v>
       </c>
       <c r="N89" t="s">
         <v>564</v>
@@ -10749,16 +10761,19 @@
         <v>564</v>
       </c>
       <c r="P89" t="s">
-        <v>642</v>
+        <v>649</v>
       </c>
       <c r="Q89" t="s">
-        <v>647</v>
-      </c>
-      <c r="T89" t="s">
-        <v>66</v>
-      </c>
-      <c r="U89" t="b">
-        <v>0</v>
+        <v>651</v>
+      </c>
+      <c r="R89" t="s">
+        <v>83</v>
+      </c>
+      <c r="S89" t="s">
+        <v>82</v>
+      </c>
+      <c r="U89" t="s">
+        <v>645</v>
       </c>
       <c r="V89" t="b">
         <v>0</v>
@@ -10773,7 +10788,7 @@
         <v>644</v>
       </c>
       <c r="AB89" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AC89" t="s">
         <v>644</v>
@@ -10782,57 +10797,57 @@
         <v>644</v>
       </c>
       <c r="AE89" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AF89" t="s">
         <v>644</v>
       </c>
       <c r="AG89" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AH89" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AI89" t="s">
-        <v>588</v>
+        <v>572</v>
       </c>
     </row>
     <row r="90" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>131</v>
+        <v>91</v>
       </c>
       <c r="B90" t="s">
-        <v>231</v>
+        <v>191</v>
       </c>
       <c r="C90" t="s">
-        <v>245</v>
+        <v>626</v>
       </c>
       <c r="D90" t="s">
-        <v>568</v>
+        <v>640</v>
       </c>
       <c r="E90">
-        <v>58</v>
+        <v>25</v>
       </c>
       <c r="F90" t="s">
         <v>301</v>
       </c>
       <c r="G90" t="s">
-        <v>312</v>
+        <v>341</v>
       </c>
       <c r="H90" t="s">
-        <v>471</v>
-      </c>
-      <c r="I90" s="3">
-        <v>41852</v>
+        <v>431</v>
+      </c>
+      <c r="I90" t="s">
+        <v>525</v>
       </c>
       <c r="J90" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="L90" t="b">
         <v>1</v>
       </c>
       <c r="M90" t="s">
-        <v>641</v>
+        <v>646</v>
       </c>
       <c r="N90" t="s">
         <v>564</v>
@@ -10841,25 +10856,22 @@
         <v>564</v>
       </c>
       <c r="P90" t="s">
-        <v>653</v>
+        <v>642</v>
       </c>
       <c r="Q90" t="s">
-        <v>650</v>
-      </c>
-      <c r="R90" t="s">
-        <v>66</v>
-      </c>
-      <c r="S90" t="s">
-        <v>88</v>
-      </c>
-      <c r="U90" t="s">
-        <v>645</v>
+        <v>643</v>
+      </c>
+      <c r="T90" t="s">
+        <v>52</v>
+      </c>
+      <c r="U90" t="b">
+        <v>1</v>
       </c>
       <c r="V90" t="b">
         <v>0</v>
       </c>
       <c r="Y90" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="Z90" t="s">
         <v>644</v>
@@ -10880,75 +10892,72 @@
         <v>644</v>
       </c>
       <c r="AF90" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AG90" t="s">
         <v>644</v>
       </c>
       <c r="AH90" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AI90" t="s">
-        <v>581</v>
+        <v>600</v>
       </c>
     </row>
     <row r="91" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>125</v>
+        <v>52</v>
       </c>
       <c r="B91" t="s">
-        <v>225</v>
+        <v>152</v>
       </c>
       <c r="C91" t="s">
-        <v>245</v>
+        <v>627</v>
       </c>
       <c r="D91" t="s">
-        <v>568</v>
+        <v>640</v>
       </c>
       <c r="E91">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F91" t="s">
         <v>301</v>
       </c>
       <c r="G91" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="H91" t="s">
-        <v>465</v>
+        <v>392</v>
       </c>
       <c r="I91" t="s">
-        <v>553</v>
+        <v>490</v>
       </c>
       <c r="J91" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="L91" t="b">
+        <v>1</v>
+      </c>
+      <c r="M91" t="s">
+        <v>648</v>
+      </c>
+      <c r="N91" t="s">
+        <v>564</v>
+      </c>
+      <c r="O91" t="s">
+        <v>564</v>
+      </c>
+      <c r="P91" t="s">
+        <v>642</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>647</v>
+      </c>
+      <c r="T91" t="s">
+        <v>91</v>
+      </c>
+      <c r="U91" t="b">
         <v>0</v>
-      </c>
-      <c r="M91" t="s">
-        <v>641</v>
-      </c>
-      <c r="N91" t="s">
-        <v>564</v>
-      </c>
-      <c r="O91" t="s">
-        <v>564</v>
-      </c>
-      <c r="P91" t="s">
-        <v>649</v>
-      </c>
-      <c r="Q91" t="s">
-        <v>650</v>
-      </c>
-      <c r="R91" t="s">
-        <v>66</v>
-      </c>
-      <c r="S91" t="s">
-        <v>88</v>
-      </c>
-      <c r="U91" t="s">
-        <v>645</v>
       </c>
       <c r="V91" t="b">
         <v>0</v>
@@ -10957,13 +10966,13 @@
         <v>644</v>
       </c>
       <c r="Z91" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AA91" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AB91" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AC91" t="s">
         <v>644</v>
@@ -10984,42 +10993,42 @@
         <v>644</v>
       </c>
       <c r="AI91" t="s">
-        <v>610</v>
+        <v>584</v>
       </c>
     </row>
     <row r="92" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>121</v>
+        <v>55</v>
       </c>
       <c r="B92" t="s">
-        <v>221</v>
+        <v>155</v>
       </c>
       <c r="C92" t="s">
-        <v>294</v>
+        <v>251</v>
       </c>
       <c r="D92" t="s">
-        <v>568</v>
+        <v>618</v>
       </c>
       <c r="E92">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="F92" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G92" t="s">
-        <v>368</v>
+        <v>319</v>
       </c>
       <c r="H92" t="s">
-        <v>461</v>
+        <v>395</v>
       </c>
       <c r="I92" s="3">
-        <v>44441</v>
+        <v>43759</v>
       </c>
       <c r="J92" t="s">
         <v>560</v>
       </c>
       <c r="L92" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M92" t="s">
         <v>652</v>
@@ -11031,25 +11040,22 @@
         <v>564</v>
       </c>
       <c r="P92" t="s">
-        <v>653</v>
+        <v>642</v>
       </c>
       <c r="Q92" t="s">
-        <v>650</v>
-      </c>
-      <c r="R92" t="s">
-        <v>66</v>
-      </c>
-      <c r="S92" t="s">
-        <v>88</v>
-      </c>
-      <c r="U92" t="s">
-        <v>645</v>
+        <v>643</v>
+      </c>
+      <c r="T92" t="s">
+        <v>104</v>
+      </c>
+      <c r="U92" t="b">
+        <v>1</v>
       </c>
       <c r="V92" t="b">
         <v>0</v>
       </c>
       <c r="Y92" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="Z92" t="s">
         <v>644</v>
@@ -11073,51 +11079,51 @@
         <v>644</v>
       </c>
       <c r="AG92" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AH92" t="s">
         <v>644</v>
       </c>
       <c r="AI92" t="s">
-        <v>494</v>
+        <v>586</v>
       </c>
     </row>
     <row r="93" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>48</v>
+        <v>104</v>
       </c>
       <c r="B93" t="s">
-        <v>148</v>
+        <v>204</v>
       </c>
       <c r="C93" t="s">
-        <v>247</v>
+        <v>284</v>
       </c>
       <c r="D93" t="s">
-        <v>565</v>
+        <v>618</v>
       </c>
       <c r="E93">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="F93" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G93" t="s">
-        <v>314</v>
+        <v>358</v>
       </c>
       <c r="H93" t="s">
-        <v>388</v>
-      </c>
-      <c r="I93" s="3">
-        <v>43027</v>
+        <v>444</v>
+      </c>
+      <c r="I93" t="s">
+        <v>537</v>
       </c>
       <c r="J93" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="L93" t="b">
         <v>1</v>
       </c>
       <c r="M93" t="s">
-        <v>648</v>
+        <v>655</v>
       </c>
       <c r="N93" t="s">
         <v>564</v>
@@ -11129,10 +11135,10 @@
         <v>642</v>
       </c>
       <c r="Q93" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="T93" t="s">
-        <v>117</v>
+        <v>55</v>
       </c>
       <c r="U93" t="b">
         <v>0</v>
@@ -11144,10 +11150,10 @@
         <v>645</v>
       </c>
       <c r="Z93" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AA93" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AB93" t="s">
         <v>644</v>
@@ -11171,45 +11177,45 @@
         <v>644</v>
       </c>
       <c r="AI93" t="s">
-        <v>581</v>
+        <v>609</v>
       </c>
     </row>
     <row r="94" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="B94" t="s">
-        <v>217</v>
+        <v>186</v>
       </c>
       <c r="C94" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="D94" t="s">
-        <v>565</v>
+        <v>618</v>
       </c>
       <c r="E94">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="F94" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G94" t="s">
-        <v>366</v>
+        <v>347</v>
       </c>
       <c r="H94" t="s">
-        <v>457</v>
+        <v>426</v>
       </c>
       <c r="I94" t="s">
-        <v>547</v>
+        <v>520</v>
       </c>
       <c r="J94" t="s">
-        <v>562</v>
+        <v>558</v>
       </c>
       <c r="L94" t="b">
         <v>1</v>
       </c>
       <c r="M94" t="s">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="N94" t="s">
         <v>564</v>
@@ -11221,13 +11227,16 @@
         <v>642</v>
       </c>
       <c r="Q94" t="s">
-        <v>647</v>
-      </c>
-      <c r="T94" t="s">
-        <v>48</v>
-      </c>
-      <c r="U94" t="b">
-        <v>0</v>
+        <v>650</v>
+      </c>
+      <c r="R94" t="s">
+        <v>55</v>
+      </c>
+      <c r="S94" t="s">
+        <v>104</v>
+      </c>
+      <c r="U94" t="s">
+        <v>645</v>
       </c>
       <c r="V94" t="b">
         <v>0</v>
@@ -11248,13 +11257,13 @@
         <v>644</v>
       </c>
       <c r="AD94" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AE94" t="s">
         <v>644</v>
       </c>
       <c r="AF94" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AG94" t="s">
         <v>644</v>
@@ -11263,45 +11272,45 @@
         <v>644</v>
       </c>
       <c r="AI94" t="s">
-        <v>576</v>
+        <v>596</v>
       </c>
     </row>
     <row r="95" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>60</v>
+        <v>134</v>
       </c>
       <c r="B95" t="s">
-        <v>160</v>
+        <v>234</v>
       </c>
       <c r="C95" t="s">
-        <v>256</v>
+        <v>299</v>
       </c>
       <c r="D95" t="s">
-        <v>565</v>
+        <v>618</v>
       </c>
       <c r="E95">
-        <v>24</v>
+        <v>70</v>
       </c>
       <c r="F95" t="s">
         <v>300</v>
       </c>
       <c r="G95" t="s">
-        <v>324</v>
+        <v>374</v>
       </c>
       <c r="H95" t="s">
-        <v>400</v>
-      </c>
-      <c r="I95" t="s">
-        <v>497</v>
+        <v>474</v>
+      </c>
+      <c r="I95" s="3">
+        <v>45226</v>
       </c>
       <c r="J95" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="L95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M95" t="s">
-        <v>652</v>
+        <v>654</v>
       </c>
       <c r="N95" t="s">
         <v>564</v>
@@ -11310,16 +11319,16 @@
         <v>564</v>
       </c>
       <c r="P95" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="Q95" t="s">
         <v>651</v>
       </c>
       <c r="R95" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="S95" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="U95" t="s">
         <v>645</v>
@@ -11331,7 +11340,7 @@
         <v>644</v>
       </c>
       <c r="Z95" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AA95" t="s">
         <v>644</v>
@@ -11340,10 +11349,10 @@
         <v>644</v>
       </c>
       <c r="AC95" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AD95" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AE95" t="s">
         <v>644</v>
@@ -11352,42 +11361,42 @@
         <v>645</v>
       </c>
       <c r="AG95" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AH95" t="s">
         <v>644</v>
       </c>
       <c r="AI95" t="s">
-        <v>591</v>
+        <v>610</v>
       </c>
     </row>
     <row r="96" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>130</v>
+        <v>66</v>
       </c>
       <c r="B96" t="s">
-        <v>230</v>
+        <v>166</v>
       </c>
       <c r="C96" t="s">
-        <v>298</v>
+        <v>262</v>
       </c>
       <c r="D96" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="E96">
-        <v>70</v>
+        <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G96" t="s">
-        <v>373</v>
+        <v>330</v>
       </c>
       <c r="H96" t="s">
-        <v>470</v>
+        <v>406</v>
       </c>
       <c r="I96" t="s">
-        <v>555</v>
+        <v>501</v>
       </c>
       <c r="J96" t="s">
         <v>559</v>
@@ -11396,7 +11405,7 @@
         <v>1</v>
       </c>
       <c r="M96" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
       <c r="N96" t="s">
         <v>564</v>
@@ -11405,22 +11414,19 @@
         <v>564</v>
       </c>
       <c r="P96" t="s">
-        <v>653</v>
+        <v>642</v>
       </c>
       <c r="Q96" t="s">
-        <v>651</v>
-      </c>
-      <c r="R96" t="s">
-        <v>48</v>
-      </c>
-      <c r="S96" t="s">
-        <v>117</v>
-      </c>
-      <c r="U96" t="s">
-        <v>645</v>
+        <v>643</v>
+      </c>
+      <c r="T96" t="s">
+        <v>88</v>
+      </c>
+      <c r="U96" t="b">
+        <v>0</v>
       </c>
       <c r="V96" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y96" t="s">
         <v>645</v>
@@ -11447,51 +11453,51 @@
         <v>644</v>
       </c>
       <c r="AG96" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AH96" t="s">
         <v>644</v>
       </c>
       <c r="AI96" t="s">
-        <v>610</v>
+        <v>595</v>
       </c>
     </row>
     <row r="97" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B97" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C97" t="s">
-        <v>297</v>
+        <v>245</v>
       </c>
       <c r="D97" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
       <c r="E97">
-        <v>28</v>
+        <v>58</v>
       </c>
       <c r="F97" t="s">
         <v>301</v>
       </c>
       <c r="G97" t="s">
-        <v>372</v>
+        <v>312</v>
       </c>
       <c r="H97" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="I97" s="3">
-        <v>41194</v>
+        <v>41852</v>
       </c>
       <c r="J97" t="s">
         <v>560</v>
       </c>
       <c r="L97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M97" t="s">
-        <v>654</v>
+        <v>641</v>
       </c>
       <c r="N97" t="s">
         <v>564</v>
@@ -11500,16 +11506,16 @@
         <v>564</v>
       </c>
       <c r="P97" t="s">
-        <v>642</v>
+        <v>653</v>
       </c>
       <c r="Q97" t="s">
         <v>650</v>
       </c>
       <c r="R97" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="S97" t="s">
-        <v>117</v>
+        <v>88</v>
       </c>
       <c r="U97" t="s">
         <v>645</v>
@@ -11527,13 +11533,13 @@
         <v>644</v>
       </c>
       <c r="AB97" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AC97" t="s">
         <v>644</v>
       </c>
       <c r="AD97" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AE97" t="s">
         <v>644</v>
@@ -11545,48 +11551,48 @@
         <v>644</v>
       </c>
       <c r="AH97" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AI97" t="s">
-        <v>611</v>
+        <v>581</v>
       </c>
     </row>
     <row r="98" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>102</v>
+        <v>48</v>
       </c>
       <c r="B98" t="s">
-        <v>202</v>
+        <v>148</v>
       </c>
       <c r="C98" t="s">
-        <v>242</v>
+        <v>247</v>
       </c>
       <c r="D98" t="s">
         <v>565</v>
       </c>
       <c r="E98">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="F98" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G98" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="H98" t="s">
-        <v>442</v>
+        <v>388</v>
       </c>
       <c r="I98" s="3">
-        <v>36783</v>
+        <v>43027</v>
       </c>
       <c r="J98" t="s">
         <v>560</v>
       </c>
       <c r="L98" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M98" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
       <c r="N98" t="s">
         <v>564</v>
@@ -11598,22 +11604,19 @@
         <v>642</v>
       </c>
       <c r="Q98" t="s">
-        <v>650</v>
-      </c>
-      <c r="R98" t="s">
-        <v>48</v>
-      </c>
-      <c r="S98" t="s">
+        <v>643</v>
+      </c>
+      <c r="T98" t="s">
         <v>117</v>
       </c>
-      <c r="U98" t="s">
-        <v>645</v>
+      <c r="U98" t="b">
+        <v>0</v>
       </c>
       <c r="V98" t="b">
         <v>0</v>
       </c>
       <c r="Y98" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="Z98" t="s">
         <v>645</v>
@@ -11631,7 +11634,7 @@
         <v>644</v>
       </c>
       <c r="AE98" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AF98" t="s">
         <v>644</v>
@@ -11643,66 +11646,63 @@
         <v>644</v>
       </c>
       <c r="AI98" t="s">
-        <v>599</v>
+        <v>581</v>
       </c>
     </row>
     <row r="99" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>59</v>
+        <v>117</v>
       </c>
       <c r="B99" t="s">
-        <v>159</v>
+        <v>217</v>
       </c>
       <c r="C99" t="s">
-        <v>255</v>
+        <v>292</v>
       </c>
       <c r="D99" t="s">
         <v>565</v>
       </c>
       <c r="E99">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="F99" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G99" t="s">
-        <v>323</v>
+        <v>366</v>
       </c>
       <c r="H99" t="s">
-        <v>399</v>
+        <v>457</v>
       </c>
       <c r="I99" t="s">
-        <v>496</v>
+        <v>547</v>
       </c>
       <c r="J99" t="s">
         <v>562</v>
       </c>
       <c r="L99" t="b">
+        <v>1</v>
+      </c>
+      <c r="M99" t="s">
+        <v>654</v>
+      </c>
+      <c r="N99" t="s">
+        <v>564</v>
+      </c>
+      <c r="O99" t="s">
+        <v>564</v>
+      </c>
+      <c r="P99" t="s">
+        <v>642</v>
+      </c>
+      <c r="Q99" t="s">
+        <v>647</v>
+      </c>
+      <c r="T99" t="s">
+        <v>48</v>
+      </c>
+      <c r="U99" t="b">
         <v>0</v>
-      </c>
-      <c r="M99" t="s">
-        <v>648</v>
-      </c>
-      <c r="N99" t="s">
-        <v>564</v>
-      </c>
-      <c r="O99" t="s">
-        <v>564</v>
-      </c>
-      <c r="P99" t="s">
-        <v>653</v>
-      </c>
-      <c r="Q99" t="s">
-        <v>650</v>
-      </c>
-      <c r="R99" t="s">
-        <v>48</v>
-      </c>
-      <c r="S99" t="s">
-        <v>117</v>
-      </c>
-      <c r="U99" t="s">
-        <v>645</v>
       </c>
       <c r="V99" t="b">
         <v>0</v>
@@ -11714,7 +11714,7 @@
         <v>644</v>
       </c>
       <c r="AA99" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AB99" t="s">
         <v>644</v>
@@ -11723,13 +11723,13 @@
         <v>644</v>
       </c>
       <c r="AD99" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AE99" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AF99" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AG99" t="s">
         <v>644</v>
@@ -11738,42 +11738,42 @@
         <v>644</v>
       </c>
       <c r="AI99" t="s">
-        <v>590</v>
+        <v>576</v>
       </c>
     </row>
     <row r="100" spans="1:35" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>107</v>
+        <v>130</v>
       </c>
       <c r="B100" t="s">
-        <v>207</v>
+        <v>230</v>
       </c>
       <c r="C100" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="D100" t="s">
         <v>565</v>
       </c>
       <c r="E100">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="F100" t="s">
         <v>300</v>
       </c>
       <c r="G100" t="s">
-        <v>360</v>
+        <v>373</v>
       </c>
       <c r="H100" t="s">
-        <v>447</v>
+        <v>470</v>
       </c>
       <c r="I100" t="s">
-        <v>540</v>
+        <v>555</v>
       </c>
       <c r="J100" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="L100" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M100" t="s">
         <v>652</v>
@@ -11785,7 +11785,7 @@
         <v>564</v>
       </c>
       <c r="P100" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="Q100" t="s">
         <v>651</v>
@@ -11803,13 +11803,13 @@
         <v>0</v>
       </c>
       <c r="Y100" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="Z100" t="s">
         <v>644</v>
       </c>
       <c r="AA100" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="AB100" t="s">
         <v>644</v>
@@ -11830,10 +11830,10 @@
         <v>644</v>
       </c>
       <c r="AH100" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="AI100" t="s">
-        <v>576</v>
+        <v>610</v>
       </c>
     </row>
     <row r="101" spans="1:35" x14ac:dyDescent="0.35">
@@ -11937,7 +11937,7 @@
   </sheetData>
   <autoFilter ref="A1:AI101" xr:uid="{00000000-0001-0000-0000-000000000000}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AI101">
-      <sortCondition ref="D1:D101"/>
+      <sortCondition ref="L1:L101"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
